--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-23.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="380">
   <si>
     <t>League</t>
   </si>
@@ -1154,81 +1154,6 @@
   </si>
   <si>
     <t>Nashville SC</t>
-  </si>
-  <si>
-    <t>33129871</t>
-  </si>
-  <si>
-    <t>33129494</t>
-  </si>
-  <si>
-    <t>33128825</t>
-  </si>
-  <si>
-    <t>33129503</t>
-  </si>
-  <si>
-    <t>33127931</t>
-  </si>
-  <si>
-    <t>1.226515855</t>
-  </si>
-  <si>
-    <t>1.226510154</t>
-  </si>
-  <si>
-    <t>1.226494641</t>
-  </si>
-  <si>
-    <t>1.226509974</t>
-  </si>
-  <si>
-    <t>1.226495135</t>
-  </si>
-  <si>
-    <t>1.226515900</t>
-  </si>
-  <si>
-    <t>1.226510199</t>
-  </si>
-  <si>
-    <t>1.226494686</t>
-  </si>
-  <si>
-    <t>1.226510019</t>
-  </si>
-  <si>
-    <t>1.226495138</t>
-  </si>
-  <si>
-    <t>1.226515939</t>
-  </si>
-  <si>
-    <t>1.226510238</t>
-  </si>
-  <si>
-    <t>1.226494725</t>
-  </si>
-  <si>
-    <t>1.226510058</t>
-  </si>
-  <si>
-    <t>1.226495182</t>
-  </si>
-  <si>
-    <t>1.226515864</t>
-  </si>
-  <si>
-    <t>1.226510163</t>
-  </si>
-  <si>
-    <t>1.226494650</t>
-  </si>
-  <si>
-    <t>1.226509983</t>
-  </si>
-  <si>
-    <t>1.226495183</t>
   </si>
 </sst>
 </file>
@@ -5507,8 +5432,8 @@
       <c r="BE20">
         <v>1000</v>
       </c>
-      <c r="BF20" t="s">
-        <v>380</v>
+      <c r="BF20">
+        <v>33129871</v>
       </c>
       <c r="BG20">
         <v>3664465</v>
@@ -5519,17 +5444,17 @@
       <c r="BI20">
         <v>58805</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>385</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>390</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>395</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>400</v>
+      <c r="BJ20">
+        <v>1.226515855</v>
+      </c>
+      <c r="BK20">
+        <v>1.2265159</v>
+      </c>
+      <c r="BL20">
+        <v>1.226515939</v>
+      </c>
+      <c r="BM20">
+        <v>1.226515864</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -20521,157 +20446,157 @@
         <v>347</v>
       </c>
       <c r="F97">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="G97">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H97">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="I97">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J97">
-        <v>2.04</v>
+        <v>2.62</v>
       </c>
       <c r="K97">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="M97">
-        <v>8.800000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="N97">
-        <v>1.13</v>
+        <v>3.35</v>
       </c>
       <c r="O97">
+        <v>3.75</v>
+      </c>
+      <c r="P97">
+        <v>2.4</v>
+      </c>
+      <c r="Q97">
+        <v>2.9</v>
+      </c>
+      <c r="R97">
+        <v>1.59</v>
+      </c>
+      <c r="S97">
+        <v>1.72</v>
+      </c>
+      <c r="T97">
+        <v>4.9</v>
+      </c>
+      <c r="U97">
+        <v>7.4</v>
+      </c>
+      <c r="V97">
+        <v>5.6</v>
+      </c>
+      <c r="W97">
+        <v>8.6</v>
+      </c>
+      <c r="X97">
+        <v>3.75</v>
+      </c>
+      <c r="Y97">
+        <v>980</v>
+      </c>
+      <c r="Z97">
+        <v>4.3</v>
+      </c>
+      <c r="AA97">
+        <v>980</v>
+      </c>
+      <c r="AB97">
+        <v>6.2</v>
+      </c>
+      <c r="AC97">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD97">
+        <v>6</v>
+      </c>
+      <c r="AE97">
+        <v>8.4</v>
+      </c>
+      <c r="AF97">
+        <v>11</v>
+      </c>
+      <c r="AG97">
+        <v>980</v>
+      </c>
+      <c r="AH97">
+        <v>4.3</v>
+      </c>
+      <c r="AI97">
+        <v>980</v>
+      </c>
+      <c r="AJ97">
+        <v>3.9</v>
+      </c>
+      <c r="AK97">
+        <v>980</v>
+      </c>
+      <c r="AL97">
+        <v>3.8</v>
+      </c>
+      <c r="AM97">
+        <v>980</v>
+      </c>
+      <c r="AN97">
+        <v>4.1</v>
+      </c>
+      <c r="AO97">
+        <v>980</v>
+      </c>
+      <c r="AP97">
+        <v>4.5</v>
+      </c>
+      <c r="AQ97">
+        <v>980</v>
+      </c>
+      <c r="AR97">
+        <v>4.4</v>
+      </c>
+      <c r="AS97">
+        <v>980</v>
+      </c>
+      <c r="AT97">
+        <v>4.4</v>
+      </c>
+      <c r="AU97">
+        <v>980</v>
+      </c>
+      <c r="AV97">
+        <v>4.5</v>
+      </c>
+      <c r="AW97">
+        <v>980</v>
+      </c>
+      <c r="AX97">
         <v>4.6</v>
       </c>
-      <c r="P97">
-        <v>1.1</v>
-      </c>
-      <c r="Q97">
-        <v>980</v>
-      </c>
-      <c r="R97">
-        <v>1.1</v>
-      </c>
-      <c r="S97">
-        <v>980</v>
-      </c>
-      <c r="T97">
-        <v>1.49</v>
-      </c>
-      <c r="U97">
-        <v>980</v>
-      </c>
-      <c r="V97">
-        <v>1.1</v>
-      </c>
-      <c r="W97">
-        <v>980</v>
-      </c>
-      <c r="X97">
-        <v>1.1</v>
-      </c>
-      <c r="Y97">
-        <v>1000</v>
-      </c>
-      <c r="Z97">
-        <v>1.1</v>
-      </c>
-      <c r="AA97">
-        <v>1000</v>
-      </c>
-      <c r="AB97">
-        <v>1.1</v>
-      </c>
-      <c r="AC97">
-        <v>980</v>
-      </c>
-      <c r="AD97">
-        <v>1.1</v>
-      </c>
-      <c r="AE97">
-        <v>980</v>
-      </c>
-      <c r="AF97">
-        <v>1.1</v>
-      </c>
-      <c r="AG97">
-        <v>980</v>
-      </c>
-      <c r="AH97">
-        <v>1.1</v>
-      </c>
-      <c r="AI97">
-        <v>1000</v>
-      </c>
-      <c r="AJ97">
-        <v>1.1</v>
-      </c>
-      <c r="AK97">
-        <v>1000</v>
-      </c>
-      <c r="AL97">
-        <v>1.1</v>
-      </c>
-      <c r="AM97">
-        <v>980</v>
-      </c>
-      <c r="AN97">
-        <v>1.1</v>
-      </c>
-      <c r="AO97">
-        <v>980</v>
-      </c>
-      <c r="AP97">
-        <v>1.1</v>
-      </c>
-      <c r="AQ97">
-        <v>1000</v>
-      </c>
-      <c r="AR97">
-        <v>1.1</v>
-      </c>
-      <c r="AS97">
-        <v>1000</v>
-      </c>
-      <c r="AT97">
-        <v>1.1</v>
-      </c>
-      <c r="AU97">
-        <v>1000</v>
-      </c>
-      <c r="AV97">
-        <v>1.1</v>
-      </c>
-      <c r="AW97">
-        <v>1000</v>
-      </c>
-      <c r="AX97">
-        <v>1.1</v>
-      </c>
       <c r="AY97">
         <v>1000</v>
       </c>
       <c r="AZ97">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="BA97">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB97">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="BC97">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD97">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="BE97">
         <v>1000</v>
@@ -20718,157 +20643,157 @@
         <v>348</v>
       </c>
       <c r="F98">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G98">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="H98">
+        <v>7.6</v>
+      </c>
+      <c r="I98">
+        <v>7.8</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>4.3</v>
+      </c>
+      <c r="L98">
+        <v>1.86</v>
+      </c>
+      <c r="M98">
+        <v>1.91</v>
+      </c>
+      <c r="N98">
+        <v>2.1</v>
+      </c>
+      <c r="O98">
+        <v>2.16</v>
+      </c>
+      <c r="P98">
+        <v>2.1</v>
+      </c>
+      <c r="Q98">
+        <v>2.24</v>
+      </c>
+      <c r="R98">
+        <v>1.8</v>
+      </c>
+      <c r="S98">
+        <v>1.91</v>
+      </c>
+      <c r="T98">
+        <v>10.5</v>
+      </c>
+      <c r="U98">
+        <v>13.5</v>
+      </c>
+      <c r="V98">
+        <v>17.5</v>
+      </c>
+      <c r="W98">
+        <v>980</v>
+      </c>
+      <c r="X98">
+        <v>8.4</v>
+      </c>
+      <c r="Y98">
+        <v>980</v>
+      </c>
+      <c r="Z98">
+        <v>8.6</v>
+      </c>
+      <c r="AA98">
+        <v>980</v>
+      </c>
+      <c r="AB98">
         <v>6.2</v>
       </c>
-      <c r="I98">
+      <c r="AC98">
+        <v>7.6</v>
+      </c>
+      <c r="AD98">
         <v>8.199999999999999</v>
       </c>
-      <c r="J98">
-        <v>3.7</v>
-      </c>
-      <c r="K98">
-        <v>4.8</v>
-      </c>
-      <c r="L98">
-        <v>1.76</v>
-      </c>
-      <c r="M98">
-        <v>2.04</v>
-      </c>
-      <c r="N98">
-        <v>1.96</v>
-      </c>
-      <c r="O98">
-        <v>2.32</v>
-      </c>
-      <c r="P98">
-        <v>2</v>
-      </c>
-      <c r="Q98">
-        <v>2.38</v>
-      </c>
-      <c r="R98">
-        <v>1.72</v>
-      </c>
-      <c r="S98">
-        <v>1.99</v>
-      </c>
-      <c r="T98">
-        <v>4.6</v>
-      </c>
-      <c r="U98">
-        <v>14.5</v>
-      </c>
-      <c r="V98">
-        <v>5.1</v>
-      </c>
-      <c r="W98">
+      <c r="AE98">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF98">
         <v>22</v>
       </c>
-      <c r="X98">
-        <v>1.52</v>
-      </c>
-      <c r="Y98">
-        <v>65</v>
-      </c>
-      <c r="Z98">
-        <v>1.08</v>
-      </c>
-      <c r="AA98">
-        <v>1000</v>
-      </c>
-      <c r="AB98">
-        <v>3.7</v>
-      </c>
-      <c r="AC98">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD98">
-        <v>4.1</v>
-      </c>
-      <c r="AE98">
-        <v>10.5</v>
-      </c>
-      <c r="AF98">
-        <v>2.32</v>
-      </c>
       <c r="AG98">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AH98">
-        <v>1.07</v>
+        <v>8.4</v>
       </c>
       <c r="AI98">
         <v>1000</v>
       </c>
       <c r="AJ98">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="AK98">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL98">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="AM98">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AN98">
-        <v>2.7</v>
+        <v>21</v>
       </c>
       <c r="AO98">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AP98">
-        <v>1.08</v>
+        <v>8.4</v>
       </c>
       <c r="AQ98">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR98">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AS98">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AT98">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="AU98">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AV98">
-        <v>5.9</v>
+        <v>34</v>
       </c>
       <c r="AW98">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AX98">
-        <v>1.08</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY98">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ98">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="BA98">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BB98">
-        <v>1.07</v>
+        <v>3.9</v>
       </c>
       <c r="BC98">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD98">
-        <v>1.08</v>
+        <v>6.4</v>
       </c>
       <c r="BE98">
         <v>1000</v>
@@ -20915,160 +20840,160 @@
         <v>349</v>
       </c>
       <c r="F99">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="G99">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="H99">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="I99">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J99">
         <v>4.2</v>
       </c>
       <c r="K99">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L99">
+        <v>2.48</v>
+      </c>
+      <c r="M99">
         <v>2.6</v>
       </c>
-      <c r="M99">
-        <v>2.84</v>
-      </c>
       <c r="N99">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="O99">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P99">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q99">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="R99">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="S99">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="T99">
-        <v>3.85</v>
+        <v>19.5</v>
       </c>
       <c r="U99">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="V99">
+        <v>20</v>
+      </c>
+      <c r="W99">
+        <v>23</v>
+      </c>
+      <c r="X99">
+        <v>34</v>
+      </c>
+      <c r="Y99">
+        <v>40</v>
+      </c>
+      <c r="Z99">
+        <v>70</v>
+      </c>
+      <c r="AA99">
+        <v>100</v>
+      </c>
+      <c r="AB99">
+        <v>11</v>
+      </c>
+      <c r="AC99">
+        <v>12.5</v>
+      </c>
+      <c r="AD99">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE99">
+        <v>10.5</v>
+      </c>
+      <c r="AF99">
         <v>16.5</v>
       </c>
-      <c r="W99">
-        <v>28</v>
-      </c>
-      <c r="X99">
-        <v>3.95</v>
-      </c>
-      <c r="Y99">
-        <v>44</v>
-      </c>
-      <c r="Z99">
-        <v>4.1</v>
-      </c>
-      <c r="AA99">
-        <v>95</v>
-      </c>
-      <c r="AB99">
-        <v>12</v>
-      </c>
-      <c r="AC99">
+      <c r="AG99">
+        <v>18</v>
+      </c>
+      <c r="AH99">
+        <v>42</v>
+      </c>
+      <c r="AI99">
+        <v>48</v>
+      </c>
+      <c r="AJ99">
+        <v>11.5</v>
+      </c>
+      <c r="AK99">
+        <v>13</v>
+      </c>
+      <c r="AL99">
+        <v>9.4</v>
+      </c>
+      <c r="AM99">
+        <v>10.5</v>
+      </c>
+      <c r="AN99">
+        <v>15.5</v>
+      </c>
+      <c r="AO99">
         <v>17</v>
       </c>
-      <c r="AD99">
-        <v>9.6</v>
-      </c>
-      <c r="AE99">
-        <v>13</v>
-      </c>
-      <c r="AF99">
-        <v>15.5</v>
-      </c>
-      <c r="AG99">
-        <v>21</v>
-      </c>
-      <c r="AH99">
-        <v>4</v>
-      </c>
-      <c r="AI99">
-        <v>50</v>
-      </c>
-      <c r="AJ99">
-        <v>12.5</v>
-      </c>
-      <c r="AK99">
+      <c r="AP99">
+        <v>42</v>
+      </c>
+      <c r="AQ99">
+        <v>80</v>
+      </c>
+      <c r="AR99">
         <v>17.5</v>
       </c>
-      <c r="AL99">
-        <v>9.6</v>
-      </c>
-      <c r="AM99">
-        <v>13</v>
-      </c>
-      <c r="AN99">
-        <v>14.5</v>
-      </c>
-      <c r="AO99">
-        <v>21</v>
-      </c>
-      <c r="AP99">
-        <v>4</v>
-      </c>
-      <c r="AQ99">
-        <v>55</v>
-      </c>
-      <c r="AR99">
-        <v>3.75</v>
-      </c>
       <c r="AS99">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AT99">
         <v>14.5</v>
       </c>
       <c r="AU99">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AV99">
-        <v>3.85</v>
+        <v>24</v>
       </c>
       <c r="AW99">
+        <v>27</v>
+      </c>
+      <c r="AX99">
+        <v>44</v>
+      </c>
+      <c r="AY99">
+        <v>70</v>
+      </c>
+      <c r="AZ99">
+        <v>6.8</v>
+      </c>
+      <c r="BA99">
+        <v>8.4</v>
+      </c>
+      <c r="BB99">
         <v>32</v>
       </c>
-      <c r="AX99">
-        <v>4.1</v>
-      </c>
-      <c r="AY99">
-        <v>80</v>
-      </c>
-      <c r="AZ99">
-        <v>2.96</v>
-      </c>
-      <c r="BA99">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BB99">
-        <v>3.9</v>
-      </c>
       <c r="BC99">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BD99">
-        <v>4.3</v>
+        <v>16.5</v>
       </c>
       <c r="BE99">
-        <v>470</v>
+        <v>980</v>
       </c>
       <c r="BF99">
         <v>33115608</v>
@@ -21112,58 +21037,58 @@
         <v>350</v>
       </c>
       <c r="F100">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G100">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H100">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I100">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J100">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L100">
         <v>2.22</v>
       </c>
       <c r="M100">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="N100">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O100">
         <v>1.82</v>
       </c>
       <c r="P100">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Q100">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R100">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="S100">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="T100">
         <v>14</v>
       </c>
       <c r="U100">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V100">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X100">
         <v>18.5</v>
@@ -21172,100 +21097,100 @@
         <v>32</v>
       </c>
       <c r="Z100">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AA100">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AB100">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC100">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD100">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF100">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG100">
         <v>17</v>
       </c>
       <c r="AH100">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AI100">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ100">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK100">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AL100">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM100">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO100">
+        <v>15</v>
+      </c>
+      <c r="AP100">
+        <v>5.4</v>
+      </c>
+      <c r="AQ100">
+        <v>50</v>
+      </c>
+      <c r="AR100">
         <v>20</v>
       </c>
-      <c r="AP100">
-        <v>1.01</v>
-      </c>
-      <c r="AQ100">
-        <v>48</v>
-      </c>
-      <c r="AR100">
-        <v>21</v>
-      </c>
       <c r="AS100">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT100">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AU100">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV100">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AW100">
         <v>38</v>
       </c>
       <c r="AX100">
-        <v>1.01</v>
+        <v>40</v>
       </c>
       <c r="AY100">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="AZ100">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BA100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB100">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BC100">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BD100">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BE100">
-        <v>610</v>
+        <v>980</v>
       </c>
       <c r="BF100">
         <v>33116888</v>
@@ -21309,160 +21234,160 @@
         <v>351</v>
       </c>
       <c r="F101">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="G101">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="H101">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I101">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="J101">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K101">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="N101">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="O101">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P101">
         <v>1.58</v>
       </c>
       <c r="Q101">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R101">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S101">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T101">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="U101">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="V101">
+        <v>16</v>
+      </c>
+      <c r="W101">
+        <v>18</v>
+      </c>
+      <c r="X101">
+        <v>22</v>
+      </c>
+      <c r="Y101">
+        <v>25</v>
+      </c>
+      <c r="Z101">
+        <v>44</v>
+      </c>
+      <c r="AA101">
+        <v>55</v>
+      </c>
+      <c r="AB101">
+        <v>12.5</v>
+      </c>
+      <c r="AC101">
         <v>14</v>
       </c>
-      <c r="W101">
-        <v>24</v>
-      </c>
-      <c r="X101">
-        <v>3.85</v>
-      </c>
-      <c r="Y101">
-        <v>38</v>
-      </c>
-      <c r="Z101">
-        <v>4</v>
-      </c>
-      <c r="AA101">
-        <v>85</v>
-      </c>
-      <c r="AB101">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC101">
-        <v>16</v>
-      </c>
       <c r="AD101">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AE101">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF101">
         <v>12.5</v>
       </c>
       <c r="AG101">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH101">
-        <v>3.9</v>
+        <v>27</v>
       </c>
       <c r="AI101">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AJ101">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK101">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL101">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AM101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN101">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO101">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AP101">
-        <v>3.95</v>
+        <v>32</v>
       </c>
       <c r="AQ101">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AR101">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AS101">
         <v>30</v>
       </c>
       <c r="AT101">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="AU101">
+        <v>22</v>
+      </c>
+      <c r="AV101">
+        <v>26</v>
+      </c>
+      <c r="AW101">
+        <v>29</v>
+      </c>
+      <c r="AX101">
+        <v>44</v>
+      </c>
+      <c r="AY101">
+        <v>65</v>
+      </c>
+      <c r="AZ101">
+        <v>9.4</v>
+      </c>
+      <c r="BA101">
+        <v>13</v>
+      </c>
+      <c r="BB101">
+        <v>14.5</v>
+      </c>
+      <c r="BC101">
         <v>23</v>
       </c>
-      <c r="AV101">
-        <v>20</v>
-      </c>
-      <c r="AW101">
-        <v>34</v>
-      </c>
-      <c r="AX101">
-        <v>4</v>
-      </c>
-      <c r="AY101">
-        <v>85</v>
-      </c>
-      <c r="AZ101">
-        <v>3.15</v>
-      </c>
-      <c r="BA101">
-        <v>12.5</v>
-      </c>
-      <c r="BB101">
-        <v>3.8</v>
-      </c>
-      <c r="BC101">
-        <v>34</v>
-      </c>
       <c r="BD101">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="BE101">
-        <v>550</v>
+        <v>980</v>
       </c>
       <c r="BF101">
         <v>33116913</v>
@@ -21506,157 +21431,157 @@
         <v>352</v>
       </c>
       <c r="F102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="G102">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="H102">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I102">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="J102">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="K102">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="L102">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="M102">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="N102">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O102">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="P102">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="Q102">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="R102">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="S102">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="T102">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="U102">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V102">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="W102">
+        <v>32</v>
+      </c>
+      <c r="X102">
+        <v>48</v>
+      </c>
+      <c r="Y102">
+        <v>90</v>
+      </c>
+      <c r="Z102">
+        <v>100</v>
+      </c>
+      <c r="AA102">
+        <v>400</v>
+      </c>
+      <c r="AB102">
+        <v>8.6</v>
+      </c>
+      <c r="AC102">
+        <v>9.6</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>12</v>
+      </c>
+      <c r="AF102">
         <v>30</v>
       </c>
-      <c r="X102">
-        <v>1.01</v>
-      </c>
-      <c r="Y102">
-        <v>65</v>
-      </c>
-      <c r="Z102">
-        <v>1.01</v>
-      </c>
-      <c r="AA102">
-        <v>190</v>
-      </c>
-      <c r="AB102">
+      <c r="AG102">
+        <v>36</v>
+      </c>
+      <c r="AH102">
+        <v>80</v>
+      </c>
+      <c r="AI102">
+        <v>140</v>
+      </c>
+      <c r="AJ102">
+        <v>7.8</v>
+      </c>
+      <c r="AK102">
+        <v>8.6</v>
+      </c>
+      <c r="AL102">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC102">
+      <c r="AM102">
+        <v>10</v>
+      </c>
+      <c r="AN102">
+        <v>23</v>
+      </c>
+      <c r="AO102">
+        <v>26</v>
+      </c>
+      <c r="AP102">
+        <v>80</v>
+      </c>
+      <c r="AQ102">
+        <v>120</v>
+      </c>
+      <c r="AR102">
+        <v>10.5</v>
+      </c>
+      <c r="AS102">
+        <v>12</v>
+      </c>
+      <c r="AT102">
         <v>13</v>
       </c>
-      <c r="AD102">
-        <v>9.6</v>
-      </c>
-      <c r="AE102">
-        <v>13</v>
-      </c>
-      <c r="AF102">
-        <v>1.01</v>
-      </c>
-      <c r="AG102">
-        <v>29</v>
-      </c>
-      <c r="AH102">
-        <v>1.01</v>
-      </c>
-      <c r="AI102">
-        <v>95</v>
-      </c>
-      <c r="AJ102">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK102">
-        <v>10.5</v>
-      </c>
-      <c r="AL102">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM102">
-        <v>10.5</v>
-      </c>
-      <c r="AN102">
-        <v>1.01</v>
-      </c>
-      <c r="AO102">
-        <v>25</v>
-      </c>
-      <c r="AP102">
-        <v>1.01</v>
-      </c>
-      <c r="AQ102">
-        <v>90</v>
-      </c>
-      <c r="AR102">
-        <v>13</v>
-      </c>
-      <c r="AS102">
-        <v>18.5</v>
-      </c>
-      <c r="AT102">
-        <v>1.01</v>
-      </c>
       <c r="AU102">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AV102">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AW102">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AX102">
-        <v>1.01</v>
+        <v>85</v>
       </c>
       <c r="AY102">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AZ102">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BA102">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="BB102">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="BC102">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="BD102">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="BE102">
         <v>1000</v>
@@ -21703,157 +21628,157 @@
         <v>353</v>
       </c>
       <c r="F103">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="G103">
-        <v>14</v>
+        <v>2.22</v>
       </c>
       <c r="H103">
-        <v>1.43</v>
+        <v>4.2</v>
       </c>
       <c r="I103">
-        <v>860</v>
+        <v>4.7</v>
       </c>
       <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>3.2</v>
+      </c>
+      <c r="L103">
+        <v>1.51</v>
+      </c>
+      <c r="M103">
+        <v>1.56</v>
+      </c>
+      <c r="N103">
+        <v>2.78</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>2.1</v>
+      </c>
+      <c r="Q103">
+        <v>2.52</v>
+      </c>
+      <c r="R103">
+        <v>1.69</v>
+      </c>
+      <c r="S103">
+        <v>1.9</v>
+      </c>
+      <c r="T103">
+        <v>6.6</v>
+      </c>
+      <c r="U103">
+        <v>980</v>
+      </c>
+      <c r="V103">
+        <v>1.83</v>
+      </c>
+      <c r="W103">
+        <v>980</v>
+      </c>
+      <c r="X103">
+        <v>2.02</v>
+      </c>
+      <c r="Y103">
+        <v>980</v>
+      </c>
+      <c r="Z103">
+        <v>2.1</v>
+      </c>
+      <c r="AA103">
+        <v>1000</v>
+      </c>
+      <c r="AB103">
+        <v>5.8</v>
+      </c>
+      <c r="AC103">
+        <v>980</v>
+      </c>
+      <c r="AD103">
+        <v>5.9</v>
+      </c>
+      <c r="AE103">
+        <v>980</v>
+      </c>
+      <c r="AF103">
+        <v>1.96</v>
+      </c>
+      <c r="AG103">
+        <v>980</v>
+      </c>
+      <c r="AH103">
+        <v>2.1</v>
+      </c>
+      <c r="AI103">
+        <v>1000</v>
+      </c>
+      <c r="AJ103">
+        <v>1.88</v>
+      </c>
+      <c r="AK103">
+        <v>980</v>
+      </c>
+      <c r="AL103">
+        <v>9.6</v>
+      </c>
+      <c r="AM103">
+        <v>980</v>
+      </c>
+      <c r="AN103">
+        <v>2</v>
+      </c>
+      <c r="AO103">
+        <v>980</v>
+      </c>
+      <c r="AP103">
+        <v>2.1</v>
+      </c>
+      <c r="AQ103">
+        <v>1000</v>
+      </c>
+      <c r="AR103">
+        <v>2.04</v>
+      </c>
+      <c r="AS103">
+        <v>980</v>
+      </c>
+      <c r="AT103">
+        <v>5.2</v>
+      </c>
+      <c r="AU103">
+        <v>980</v>
+      </c>
+      <c r="AV103">
+        <v>2.08</v>
+      </c>
+      <c r="AW103">
+        <v>1000</v>
+      </c>
+      <c r="AX103">
+        <v>2.12</v>
+      </c>
+      <c r="AY103">
+        <v>1000</v>
+      </c>
+      <c r="AZ103">
+        <v>2.02</v>
+      </c>
+      <c r="BA103">
+        <v>980</v>
+      </c>
+      <c r="BB103">
         <v>1.81</v>
       </c>
-      <c r="K103">
-        <v>320</v>
-      </c>
-      <c r="L103">
-        <v>1.27</v>
-      </c>
-      <c r="M103">
-        <v>2</v>
-      </c>
-      <c r="N103">
-        <v>2</v>
-      </c>
-      <c r="O103">
-        <v>4.6</v>
-      </c>
-      <c r="P103">
-        <v>1.12</v>
-      </c>
-      <c r="Q103">
-        <v>11</v>
-      </c>
-      <c r="R103">
-        <v>1.15</v>
-      </c>
-      <c r="S103">
-        <v>11</v>
-      </c>
-      <c r="T103">
-        <v>1.46</v>
-      </c>
-      <c r="U103">
-        <v>1000</v>
-      </c>
-      <c r="V103">
-        <v>1.01</v>
-      </c>
-      <c r="W103">
-        <v>1000</v>
-      </c>
-      <c r="X103">
-        <v>1.01</v>
-      </c>
-      <c r="Y103">
-        <v>1000</v>
-      </c>
-      <c r="Z103">
-        <v>1.01</v>
-      </c>
-      <c r="AA103">
-        <v>1000</v>
-      </c>
-      <c r="AB103">
-        <v>1.01</v>
-      </c>
-      <c r="AC103">
-        <v>1000</v>
-      </c>
-      <c r="AD103">
-        <v>1.01</v>
-      </c>
-      <c r="AE103">
-        <v>1000</v>
-      </c>
-      <c r="AF103">
-        <v>1.01</v>
-      </c>
-      <c r="AG103">
-        <v>1000</v>
-      </c>
-      <c r="AH103">
-        <v>1.01</v>
-      </c>
-      <c r="AI103">
-        <v>1000</v>
-      </c>
-      <c r="AJ103">
-        <v>1.01</v>
-      </c>
-      <c r="AK103">
-        <v>1000</v>
-      </c>
-      <c r="AL103">
-        <v>1.01</v>
-      </c>
-      <c r="AM103">
-        <v>1000</v>
-      </c>
-      <c r="AN103">
-        <v>1.01</v>
-      </c>
-      <c r="AO103">
-        <v>1000</v>
-      </c>
-      <c r="AP103">
-        <v>1.01</v>
-      </c>
-      <c r="AQ103">
-        <v>1000</v>
-      </c>
-      <c r="AR103">
-        <v>1.01</v>
-      </c>
-      <c r="AS103">
-        <v>1000</v>
-      </c>
-      <c r="AT103">
-        <v>1.01</v>
-      </c>
-      <c r="AU103">
-        <v>1000</v>
-      </c>
-      <c r="AV103">
-        <v>1.01</v>
-      </c>
-      <c r="AW103">
-        <v>1000</v>
-      </c>
-      <c r="AX103">
-        <v>1.01</v>
-      </c>
-      <c r="AY103">
-        <v>1000</v>
-      </c>
-      <c r="AZ103">
-        <v>1.01</v>
-      </c>
-      <c r="BA103">
-        <v>1000</v>
-      </c>
-      <c r="BB103">
-        <v>1.01</v>
-      </c>
       <c r="BC103">
         <v>1000</v>
       </c>
       <c r="BD103">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="BE103">
         <v>1000</v>
@@ -21900,157 +21825,157 @@
         <v>354</v>
       </c>
       <c r="F104">
+        <v>2.08</v>
+      </c>
+      <c r="G104">
+        <v>2.16</v>
+      </c>
+      <c r="H104">
+        <v>3.8</v>
+      </c>
+      <c r="I104">
+        <v>4.3</v>
+      </c>
+      <c r="J104">
+        <v>3.5</v>
+      </c>
+      <c r="K104">
+        <v>3.8</v>
+      </c>
+      <c r="L104">
+        <v>1.9</v>
+      </c>
+      <c r="M104">
+        <v>2.04</v>
+      </c>
+      <c r="N104">
         <v>1.98</v>
       </c>
-      <c r="G104">
-        <v>2.28</v>
-      </c>
-      <c r="H104">
-        <v>3.6</v>
-      </c>
-      <c r="I104">
-        <v>4.9</v>
-      </c>
-      <c r="J104">
-        <v>3.3</v>
-      </c>
-      <c r="K104">
-        <v>4.6</v>
-      </c>
-      <c r="L104">
-        <v>1.81</v>
-      </c>
-      <c r="M104">
-        <v>2.1</v>
-      </c>
-      <c r="N104">
-        <v>1.9</v>
-      </c>
       <c r="O104">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="P104">
         <v>1.75</v>
       </c>
       <c r="Q104">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R104">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="S104">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="T104">
+        <v>11</v>
+      </c>
+      <c r="U104">
+        <v>980</v>
+      </c>
+      <c r="V104">
+        <v>11.5</v>
+      </c>
+      <c r="W104">
+        <v>980</v>
+      </c>
+      <c r="X104">
+        <v>3.15</v>
+      </c>
+      <c r="Y104">
+        <v>980</v>
+      </c>
+      <c r="Z104">
+        <v>3.35</v>
+      </c>
+      <c r="AA104">
+        <v>1000</v>
+      </c>
+      <c r="AB104">
+        <v>7.8</v>
+      </c>
+      <c r="AC104">
+        <v>980</v>
+      </c>
+      <c r="AD104">
+        <v>6.8</v>
+      </c>
+      <c r="AE104">
+        <v>980</v>
+      </c>
+      <c r="AF104">
+        <v>2.98</v>
+      </c>
+      <c r="AG104">
+        <v>980</v>
+      </c>
+      <c r="AH104">
+        <v>4.9</v>
+      </c>
+      <c r="AI104">
+        <v>980</v>
+      </c>
+      <c r="AJ104">
+        <v>10.5</v>
+      </c>
+      <c r="AK104">
+        <v>980</v>
+      </c>
+      <c r="AL104">
+        <v>3.8</v>
+      </c>
+      <c r="AM104">
+        <v>980</v>
+      </c>
+      <c r="AN104">
+        <v>15.5</v>
+      </c>
+      <c r="AO104">
+        <v>980</v>
+      </c>
+      <c r="AP104">
+        <v>3.35</v>
+      </c>
+      <c r="AQ104">
+        <v>980</v>
+      </c>
+      <c r="AR104">
+        <v>4.9</v>
+      </c>
+      <c r="AS104">
+        <v>980</v>
+      </c>
+      <c r="AT104">
+        <v>4.8</v>
+      </c>
+      <c r="AU104">
+        <v>980</v>
+      </c>
+      <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>980</v>
+      </c>
+      <c r="AX104">
+        <v>3.35</v>
+      </c>
+      <c r="AY104">
+        <v>980</v>
+      </c>
+      <c r="AZ104">
+        <v>2.9</v>
+      </c>
+      <c r="BA104">
+        <v>980</v>
+      </c>
+      <c r="BB104">
+        <v>3.25</v>
+      </c>
+      <c r="BC104">
+        <v>980</v>
+      </c>
+      <c r="BD104">
         <v>3.4</v>
-      </c>
-      <c r="U104">
-        <v>980</v>
-      </c>
-      <c r="V104">
-        <v>3.45</v>
-      </c>
-      <c r="W104">
-        <v>980</v>
-      </c>
-      <c r="X104">
-        <v>3.8</v>
-      </c>
-      <c r="Y104">
-        <v>34</v>
-      </c>
-      <c r="Z104">
-        <v>1.54</v>
-      </c>
-      <c r="AA104">
-        <v>1000</v>
-      </c>
-      <c r="AB104">
-        <v>3.1</v>
-      </c>
-      <c r="AC104">
-        <v>980</v>
-      </c>
-      <c r="AD104">
-        <v>3</v>
-      </c>
-      <c r="AE104">
-        <v>980</v>
-      </c>
-      <c r="AF104">
-        <v>3.5</v>
-      </c>
-      <c r="AG104">
-        <v>980</v>
-      </c>
-      <c r="AH104">
-        <v>2.74</v>
-      </c>
-      <c r="AI104">
-        <v>1000</v>
-      </c>
-      <c r="AJ104">
-        <v>3.35</v>
-      </c>
-      <c r="AK104">
-        <v>15.5</v>
-      </c>
-      <c r="AL104">
-        <v>3.25</v>
-      </c>
-      <c r="AM104">
-        <v>980</v>
-      </c>
-      <c r="AN104">
-        <v>3.65</v>
-      </c>
-      <c r="AO104">
-        <v>980</v>
-      </c>
-      <c r="AP104">
-        <v>2.22</v>
-      </c>
-      <c r="AQ104">
-        <v>1000</v>
-      </c>
-      <c r="AR104">
-        <v>3.75</v>
-      </c>
-      <c r="AS104">
-        <v>32</v>
-      </c>
-      <c r="AT104">
-        <v>3.7</v>
-      </c>
-      <c r="AU104">
-        <v>28</v>
-      </c>
-      <c r="AV104">
-        <v>3.1</v>
-      </c>
-      <c r="AW104">
-        <v>1000</v>
-      </c>
-      <c r="AX104">
-        <v>1.42</v>
-      </c>
-      <c r="AY104">
-        <v>1000</v>
-      </c>
-      <c r="AZ104">
-        <v>2.86</v>
-      </c>
-      <c r="BA104">
-        <v>19.5</v>
-      </c>
-      <c r="BB104">
-        <v>1.43</v>
-      </c>
-      <c r="BC104">
-        <v>1000</v>
-      </c>
-      <c r="BD104">
-        <v>1.3</v>
       </c>
       <c r="BE104">
         <v>1000</v>
@@ -22097,157 +22022,157 @@
         <v>355</v>
       </c>
       <c r="F105">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="G105">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H105">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="I105">
+        <v>2.84</v>
+      </c>
+      <c r="J105">
+        <v>2.88</v>
+      </c>
+      <c r="K105">
+        <v>3.1</v>
+      </c>
+      <c r="L105">
+        <v>1.55</v>
+      </c>
+      <c r="M105">
+        <v>1.66</v>
+      </c>
+      <c r="N105">
+        <v>2.5</v>
+      </c>
+      <c r="O105">
+        <v>2.82</v>
+      </c>
+      <c r="P105">
+        <v>1.99</v>
+      </c>
+      <c r="Q105">
+        <v>2.36</v>
+      </c>
+      <c r="R105">
+        <v>1.74</v>
+      </c>
+      <c r="S105">
+        <v>2.02</v>
+      </c>
+      <c r="T105">
+        <v>6.4</v>
+      </c>
+      <c r="U105">
+        <v>980</v>
+      </c>
+      <c r="V105">
+        <v>6.8</v>
+      </c>
+      <c r="W105">
+        <v>980</v>
+      </c>
+      <c r="X105">
         <v>4.4</v>
       </c>
-      <c r="J105">
-        <v>2.68</v>
-      </c>
-      <c r="K105">
-        <v>6.8</v>
-      </c>
-      <c r="L105">
-        <v>1.34</v>
-      </c>
-      <c r="M105">
-        <v>1.9</v>
-      </c>
-      <c r="N105">
-        <v>2.12</v>
-      </c>
-      <c r="O105">
-        <v>3.9</v>
-      </c>
-      <c r="P105">
-        <v>1.1</v>
-      </c>
-      <c r="Q105">
-        <v>980</v>
-      </c>
-      <c r="R105">
-        <v>1.1</v>
-      </c>
-      <c r="S105">
-        <v>980</v>
-      </c>
-      <c r="T105">
-        <v>1.49</v>
-      </c>
-      <c r="U105">
-        <v>980</v>
-      </c>
-      <c r="V105">
-        <v>1.1</v>
-      </c>
-      <c r="W105">
-        <v>980</v>
-      </c>
-      <c r="X105">
-        <v>1.1</v>
-      </c>
       <c r="Y105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z105">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="AA105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB105">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AC105">
         <v>980</v>
       </c>
       <c r="AD105">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE105">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AF105">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG105">
         <v>980</v>
       </c>
       <c r="AH105">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="AI105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ105">
-        <v>1.1</v>
+        <v>15</v>
       </c>
       <c r="AK105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL105">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AM105">
         <v>980</v>
       </c>
       <c r="AN105">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AO105">
         <v>980</v>
       </c>
       <c r="AP105">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AQ105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR105">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AS105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT105">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="AU105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV105">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="AW105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX105">
-        <v>1.1</v>
+        <v>12</v>
       </c>
       <c r="AY105">
         <v>1000</v>
       </c>
       <c r="AZ105">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="BA105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB105">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="BC105">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD105">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="BE105">
         <v>1000</v>
@@ -22294,157 +22219,157 @@
         <v>356</v>
       </c>
       <c r="F106">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="G106">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="H106">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="I106">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="J106">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>2.96</v>
       </c>
       <c r="L106">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M106">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="N106">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="O106">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q106">
-        <v>980</v>
+        <v>2.6</v>
       </c>
       <c r="R106">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="S106">
-        <v>980</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>1.49</v>
+        <v>5.6</v>
       </c>
       <c r="U106">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="V106">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="W106">
         <v>980</v>
       </c>
       <c r="X106">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
       <c r="Y106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z106">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="AA106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB106">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC106">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD106">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AE106">
         <v>980</v>
       </c>
       <c r="AF106">
-        <v>1.1</v>
+        <v>2.58</v>
       </c>
       <c r="AG106">
         <v>980</v>
       </c>
       <c r="AH106">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AI106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ106">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="AK106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL106">
-        <v>1.1</v>
+        <v>9.4</v>
       </c>
       <c r="AM106">
         <v>980</v>
       </c>
       <c r="AN106">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="AO106">
         <v>980</v>
       </c>
       <c r="AP106">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="AQ106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR106">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="AS106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT106">
-        <v>1.1</v>
+        <v>2.72</v>
       </c>
       <c r="AU106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV106">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="AW106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX106">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="AY106">
         <v>1000</v>
       </c>
       <c r="AZ106">
-        <v>1.1</v>
+        <v>2.18</v>
       </c>
       <c r="BA106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB106">
-        <v>1.1</v>
+        <v>2.24</v>
       </c>
       <c r="BC106">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD106">
-        <v>1.1</v>
+        <v>2.92</v>
       </c>
       <c r="BE106">
         <v>1000</v>
@@ -22491,163 +22416,163 @@
         <v>357</v>
       </c>
       <c r="F107">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G107">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="H107">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I107">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J107">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K107">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L107">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="M107">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="N107">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="O107">
-        <v>2.86</v>
+        <v>1.99</v>
       </c>
       <c r="P107">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="Q107">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="R107">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="T107">
-        <v>1.49</v>
+        <v>6.2</v>
       </c>
       <c r="U107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V107">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="W107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X107">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Y107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z107">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AA107">
         <v>1000</v>
       </c>
       <c r="AB107">
-        <v>2.36</v>
+        <v>7.6</v>
       </c>
       <c r="AC107">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD107">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AE107">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AF107">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH107">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AI107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ107">
-        <v>2.96</v>
+        <v>4.2</v>
       </c>
       <c r="AK107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL107">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AM107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN107">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AO107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP107">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AQ107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR107">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AS107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT107">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="AU107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV107">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="AW107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX107">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ107">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA107">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BB107">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BC107">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD107">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BE107">
         <v>1000</v>
       </c>
-      <c r="BF107" t="s">
-        <v>381</v>
+      <c r="BF107">
+        <v>33129494</v>
       </c>
       <c r="BG107">
         <v>8761113</v>
@@ -22658,17 +22583,17 @@
       <c r="BI107">
         <v>58805</v>
       </c>
-      <c r="BJ107" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK107" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL107" t="s">
-        <v>396</v>
-      </c>
-      <c r="BM107" t="s">
-        <v>401</v>
+      <c r="BJ107">
+        <v>1.226510154</v>
+      </c>
+      <c r="BK107">
+        <v>1.226510199</v>
+      </c>
+      <c r="BL107">
+        <v>1.226510238</v>
+      </c>
+      <c r="BM107">
+        <v>1.226510163</v>
       </c>
     </row>
     <row r="108" spans="1:65">
@@ -22688,76 +22613,76 @@
         <v>358</v>
       </c>
       <c r="F108">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H108">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="I108">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="J108">
         <v>3.1</v>
       </c>
       <c r="K108">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L108">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M108">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="N108">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="O108">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q108">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="R108">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S108">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="T108">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="U108">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="V108">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W108">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X108">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y108">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z108">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AA108">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB108">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC108">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD108">
         <v>7</v>
@@ -22766,79 +22691,79 @@
         <v>7.6</v>
       </c>
       <c r="AF108">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG108">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH108">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AI108">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ108">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK108">
+        <v>10</v>
+      </c>
+      <c r="AL108">
         <v>11</v>
-      </c>
-      <c r="AL108">
-        <v>10</v>
       </c>
       <c r="AM108">
         <v>12</v>
       </c>
       <c r="AN108">
+        <v>26</v>
+      </c>
+      <c r="AO108">
+        <v>30</v>
+      </c>
+      <c r="AP108">
+        <v>15</v>
+      </c>
+      <c r="AQ108">
+        <v>190</v>
+      </c>
+      <c r="AR108">
+        <v>21</v>
+      </c>
+      <c r="AS108">
+        <v>23</v>
+      </c>
+      <c r="AT108">
+        <v>26</v>
+      </c>
+      <c r="AU108">
+        <v>30</v>
+      </c>
+      <c r="AV108">
+        <v>16</v>
+      </c>
+      <c r="AW108">
+        <v>75</v>
+      </c>
+      <c r="AX108">
+        <v>19</v>
+      </c>
+      <c r="AY108">
+        <v>290</v>
+      </c>
+      <c r="AZ108">
         <v>24</v>
       </c>
-      <c r="AO108">
-        <v>29</v>
-      </c>
-      <c r="AP108">
-        <v>11.5</v>
-      </c>
-      <c r="AQ108">
-        <v>180</v>
-      </c>
-      <c r="AR108">
-        <v>22</v>
-      </c>
-      <c r="AS108">
-        <v>25</v>
-      </c>
-      <c r="AT108">
-        <v>25</v>
-      </c>
-      <c r="AU108">
-        <v>32</v>
-      </c>
-      <c r="AV108">
-        <v>32</v>
-      </c>
-      <c r="AW108">
-        <v>70</v>
-      </c>
-      <c r="AX108">
-        <v>12</v>
-      </c>
-      <c r="AY108">
-        <v>330</v>
-      </c>
-      <c r="AZ108">
-        <v>9</v>
-      </c>
       <c r="BA108">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB108">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="BC108">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="BD108">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="BE108">
         <v>1000</v>
@@ -22885,157 +22810,157 @@
         <v>359</v>
       </c>
       <c r="F109">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G109">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="H109">
+        <v>4.8</v>
+      </c>
+      <c r="I109">
+        <v>5.4</v>
+      </c>
+      <c r="J109">
         <v>3.85</v>
       </c>
-      <c r="I109">
-        <v>980</v>
-      </c>
-      <c r="J109">
-        <v>3.4</v>
-      </c>
       <c r="K109">
-        <v>330</v>
+        <v>4.2</v>
       </c>
       <c r="L109">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="M109">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="N109">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="O109">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="P109">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="Q109">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="R109">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="S109">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="T109">
-        <v>1.49</v>
+        <v>11</v>
       </c>
       <c r="U109">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="V109">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="W109">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="X109">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="Y109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z109">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB109">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AC109">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD109">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AE109">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AF109">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AG109">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH109">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ109">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AK109">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AL109">
-        <v>1.01</v>
+        <v>9</v>
       </c>
       <c r="AM109">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AN109">
-        <v>4.9</v>
+        <v>15</v>
       </c>
       <c r="AO109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP109">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR109">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="AS109">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AT109">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AU109">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AV109">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="AW109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX109">
-        <v>1.01</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ109">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BA109">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="BB109">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="BC109">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD109">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BE109">
         <v>1000</v>
@@ -23082,76 +23007,76 @@
         <v>360</v>
       </c>
       <c r="F110">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="G110">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="H110">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I110">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J110">
         <v>3.45</v>
       </c>
       <c r="K110">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L110">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="M110">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="N110">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O110">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="P110">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Q110">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R110">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="S110">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T110">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U110">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V110">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="W110">
         <v>15.5</v>
       </c>
       <c r="X110">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Y110">
         <v>27</v>
       </c>
       <c r="Z110">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AA110">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AB110">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="AC110">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AD110">
         <v>7.2</v>
@@ -23160,79 +23085,79 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF110">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="AG110">
         <v>17</v>
       </c>
       <c r="AH110">
-        <v>4.2</v>
+        <v>29</v>
       </c>
       <c r="AI110">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ110">
-        <v>3.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK110">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL110">
         <v>10</v>
       </c>
       <c r="AM110">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN110">
-        <v>3.85</v>
+        <v>16</v>
       </c>
       <c r="AO110">
         <v>22</v>
       </c>
       <c r="AP110">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AQ110">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AR110">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AS110">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AT110">
-        <v>4.1</v>
+        <v>18</v>
       </c>
       <c r="AU110">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AV110">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AW110">
+        <v>48</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>980</v>
+      </c>
+      <c r="AZ110">
+        <v>4.6</v>
+      </c>
+      <c r="BA110">
+        <v>22</v>
+      </c>
+      <c r="BB110">
+        <v>5.2</v>
+      </c>
+      <c r="BC110">
         <v>50</v>
       </c>
-      <c r="AX110">
-        <v>4.5</v>
-      </c>
-      <c r="AY110">
-        <v>120</v>
-      </c>
-      <c r="AZ110">
-        <v>3.95</v>
-      </c>
-      <c r="BA110">
-        <v>25</v>
-      </c>
-      <c r="BB110">
-        <v>4.2</v>
-      </c>
-      <c r="BC110">
-        <v>40</v>
-      </c>
       <c r="BD110">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="BE110">
         <v>1000</v>
@@ -23279,106 +23204,106 @@
         <v>361</v>
       </c>
       <c r="F111">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G111">
         <v>2.04</v>
       </c>
       <c r="H111">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J111">
         <v>3.25</v>
       </c>
       <c r="K111">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L111">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M111">
+        <v>1.71</v>
+      </c>
+      <c r="N111">
+        <v>2.4</v>
+      </c>
+      <c r="O111">
+        <v>2.48</v>
+      </c>
+      <c r="P111">
+        <v>2.04</v>
+      </c>
+      <c r="Q111">
+        <v>2.2</v>
+      </c>
+      <c r="R111">
         <v>1.83</v>
       </c>
-      <c r="N111">
-        <v>2.2</v>
-      </c>
-      <c r="O111">
-        <v>2.52</v>
-      </c>
-      <c r="P111">
-        <v>1.94</v>
-      </c>
-      <c r="Q111">
-        <v>2.3</v>
-      </c>
-      <c r="R111">
-        <v>1.78</v>
-      </c>
       <c r="S111">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="T111">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U111">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V111">
         <v>10.5</v>
       </c>
       <c r="W111">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X111">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y111">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z111">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA111">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AB111">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC111">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD111">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE111">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF111">
         <v>14.5</v>
       </c>
       <c r="AG111">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AH111">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI111">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AJ111">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AK111">
         <v>13.5</v>
       </c>
       <c r="AL111">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AM111">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AN111">
         <v>16.5</v>
@@ -23387,10 +23312,10 @@
         <v>28</v>
       </c>
       <c r="AP111">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AQ111">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AR111">
         <v>16.5</v>
@@ -23405,31 +23330,31 @@
         <v>29</v>
       </c>
       <c r="AV111">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="AW111">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AX111">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="AY111">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AZ111">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BA111">
         <v>22</v>
       </c>
       <c r="BB111">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="BC111">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="BD111">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="BE111">
         <v>1000</v>
@@ -23476,46 +23401,46 @@
         <v>362</v>
       </c>
       <c r="F112">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="G112">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="H112">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="I112">
         <v>980</v>
       </c>
       <c r="J112">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K112">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="L112">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="M112">
-        <v>36</v>
+        <v>2.8</v>
       </c>
       <c r="N112">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="O112">
-        <v>4.6</v>
+        <v>2.14</v>
       </c>
       <c r="P112">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="Q112">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="R112">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="S112">
-        <v>990</v>
+        <v>1.82</v>
       </c>
       <c r="T112">
         <v>1.49</v>
@@ -23524,115 +23449,115 @@
         <v>1000</v>
       </c>
       <c r="V112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W112">
         <v>1000</v>
       </c>
       <c r="X112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y112">
         <v>1000</v>
       </c>
       <c r="Z112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AA112">
         <v>1000</v>
       </c>
       <c r="AB112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AC112">
         <v>1000</v>
       </c>
       <c r="AD112">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AE112">
         <v>1000</v>
       </c>
       <c r="AF112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG112">
         <v>1000</v>
       </c>
       <c r="AH112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AI112">
         <v>1000</v>
       </c>
       <c r="AJ112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AK112">
         <v>1000</v>
       </c>
       <c r="AL112">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="AM112">
         <v>1000</v>
       </c>
       <c r="AN112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AO112">
         <v>1000</v>
       </c>
       <c r="AP112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AQ112">
         <v>1000</v>
       </c>
       <c r="AR112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AS112">
         <v>1000</v>
       </c>
       <c r="AT112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AU112">
         <v>1000</v>
       </c>
       <c r="AV112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AW112">
         <v>1000</v>
       </c>
       <c r="AX112">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="AY112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ112">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BA112">
         <v>1000</v>
       </c>
       <c r="BB112">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC112">
         <v>1000</v>
       </c>
       <c r="BD112">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BE112">
         <v>1000</v>
       </c>
-      <c r="BF112" t="s">
-        <v>382</v>
+      <c r="BF112">
+        <v>33128825</v>
       </c>
       <c r="BG112">
         <v>504780</v>
@@ -23643,17 +23568,17 @@
       <c r="BI112">
         <v>58805</v>
       </c>
-      <c r="BJ112" t="s">
-        <v>387</v>
-      </c>
-      <c r="BK112" t="s">
-        <v>392</v>
-      </c>
-      <c r="BL112" t="s">
-        <v>397</v>
-      </c>
-      <c r="BM112" t="s">
-        <v>402</v>
+      <c r="BJ112">
+        <v>1.226494641</v>
+      </c>
+      <c r="BK112">
+        <v>1.226494686</v>
+      </c>
+      <c r="BL112">
+        <v>1.226494725</v>
+      </c>
+      <c r="BM112">
+        <v>1.22649465</v>
       </c>
     </row>
     <row r="113" spans="1:65">
@@ -23673,157 +23598,157 @@
         <v>363</v>
       </c>
       <c r="F113">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="G113">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="H113">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="I113">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="J113">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K113">
-        <v>330</v>
+        <v>3.9</v>
       </c>
       <c r="L113">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="M113">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="N113">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="O113">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="P113">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="Q113">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="R113">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="S113">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="T113">
-        <v>1.48</v>
+        <v>12.5</v>
       </c>
       <c r="U113">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="V113">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="W113">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="X113">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="Y113">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z113">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AA113">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB113">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AC113">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD113">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AE113">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF113">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AG113">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH113">
-        <v>1.01</v>
+        <v>29</v>
       </c>
       <c r="AI113">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ113">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AK113">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL113">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AM113">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN113">
-        <v>4.1</v>
+        <v>16</v>
       </c>
       <c r="AO113">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AP113">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="AQ113">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AR113">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="AS113">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AT113">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AU113">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AV113">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AW113">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AX113">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AY113">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AZ113">
-        <v>1.01</v>
+        <v>17</v>
       </c>
       <c r="BA113">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="BB113">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BC113">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="BD113">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="BE113">
         <v>1000</v>
@@ -23870,163 +23795,163 @@
         <v>364</v>
       </c>
       <c r="F114">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G114">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="H114">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="I114">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="J114">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K114">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="L114">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="M114">
+        <v>1.9</v>
+      </c>
+      <c r="N114">
+        <v>2.12</v>
+      </c>
+      <c r="O114">
         <v>2.26</v>
       </c>
-      <c r="N114">
-        <v>1.79</v>
-      </c>
-      <c r="O114">
-        <v>3.8</v>
-      </c>
       <c r="P114">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="Q114">
-        <v>1000</v>
+        <v>2.26</v>
       </c>
       <c r="R114">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="T114">
-        <v>1.49</v>
+        <v>5</v>
       </c>
       <c r="U114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V114">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="W114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X114">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="Y114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z114">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="AA114">
         <v>1000</v>
       </c>
       <c r="AB114">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AC114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD114">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AE114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF114">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AG114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH114">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AI114">
         <v>1000</v>
       </c>
       <c r="AJ114">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AK114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL114">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="AM114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN114">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AO114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP114">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="AQ114">
         <v>1000</v>
       </c>
       <c r="AR114">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="AS114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT114">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AU114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV114">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AW114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX114">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AY114">
         <v>1000</v>
       </c>
       <c r="AZ114">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="BA114">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB114">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="BC114">
         <v>1000</v>
       </c>
       <c r="BD114">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE114">
         <v>1000</v>
       </c>
-      <c r="BF114" t="s">
-        <v>383</v>
+      <c r="BF114">
+        <v>33129503</v>
       </c>
       <c r="BG114">
         <v>893607</v>
@@ -24037,17 +23962,17 @@
       <c r="BI114">
         <v>58805</v>
       </c>
-      <c r="BJ114" t="s">
-        <v>388</v>
-      </c>
-      <c r="BK114" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL114" t="s">
-        <v>398</v>
-      </c>
-      <c r="BM114" t="s">
-        <v>403</v>
+      <c r="BJ114">
+        <v>1.226509974</v>
+      </c>
+      <c r="BK114">
+        <v>1.226510019</v>
+      </c>
+      <c r="BL114">
+        <v>1.226510058</v>
+      </c>
+      <c r="BM114">
+        <v>1.226509983</v>
       </c>
     </row>
     <row r="115" spans="1:65">
@@ -24070,154 +23995,154 @@
         <v>2.34</v>
       </c>
       <c r="G115">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="H115">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="I115">
         <v>4.1</v>
       </c>
       <c r="J115">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L115">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M115">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="N115">
-        <v>2.54</v>
+        <v>2.74</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q115">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="R115">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="T115">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="U115">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="V115">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W115">
         <v>11.5</v>
       </c>
       <c r="X115">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y115">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z115">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AA115">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AB115">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC115">
         <v>8.199999999999999</v>
       </c>
       <c r="AD115">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE115">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF115">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG115">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI115">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ115">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK115">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL115">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AM115">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AN115">
         <v>19.5</v>
       </c>
       <c r="AO115">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP115">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="AQ115">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AR115">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="AS115">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AT115">
-        <v>4.8</v>
+        <v>26</v>
       </c>
       <c r="AU115">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AV115">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AW115">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AX115">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY115">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AZ115">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="BA115">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="BB115">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BC115">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="BD115">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="BE115">
         <v>1000</v>
@@ -24264,160 +24189,160 @@
         <v>366</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H116">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="I116">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="J116">
         <v>3.55</v>
       </c>
       <c r="K116">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L116">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="M116">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="N116">
+        <v>1.99</v>
+      </c>
+      <c r="O116">
         <v>2.04</v>
       </c>
-      <c r="O116">
-        <v>2.16</v>
-      </c>
       <c r="P116">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q116">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R116">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="S116">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T116">
+        <v>12.5</v>
+      </c>
+      <c r="U116">
+        <v>13.5</v>
+      </c>
+      <c r="V116">
+        <v>10</v>
+      </c>
+      <c r="W116">
         <v>11</v>
       </c>
-      <c r="U116">
-        <v>15</v>
-      </c>
-      <c r="V116">
-        <v>8.6</v>
-      </c>
-      <c r="W116">
-        <v>11.5</v>
-      </c>
       <c r="X116">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y116">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z116">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="AA116">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB116">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC116">
         <v>13</v>
       </c>
       <c r="AD116">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE116">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF116">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG116">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH116">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AI116">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ116">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AK116">
         <v>22</v>
       </c>
       <c r="AL116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM116">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN116">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO116">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AP116">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AQ116">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AR116">
-        <v>1.01</v>
+        <v>44</v>
       </c>
       <c r="AS116">
         <v>55</v>
       </c>
       <c r="AT116">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="AU116">
+        <v>36</v>
+      </c>
+      <c r="AV116">
         <v>40</v>
       </c>
-      <c r="AV116">
-        <v>1.01</v>
-      </c>
       <c r="AW116">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AX116">
-        <v>1.01</v>
+        <v>40</v>
       </c>
       <c r="AY116">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AZ116">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BA116">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB116">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="BC116">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BD116">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="BE116">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BF116">
         <v>33116169</v>
@@ -24461,58 +24386,58 @@
         <v>367</v>
       </c>
       <c r="F117">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G117">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H117">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I117">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J117">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K117">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L117">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="M117">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="N117">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="O117">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P117">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q117">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R117">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="S117">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T117">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="U117">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V117">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W117">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X117">
         <v>22</v>
@@ -24521,40 +24446,40 @@
         <v>24</v>
       </c>
       <c r="Z117">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA117">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB117">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC117">
+        <v>12</v>
+      </c>
+      <c r="AD117">
+        <v>7.8</v>
+      </c>
+      <c r="AE117">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF117">
         <v>13</v>
       </c>
-      <c r="AD117">
-        <v>8</v>
-      </c>
-      <c r="AE117">
-        <v>8.6</v>
-      </c>
-      <c r="AF117">
-        <v>12.5</v>
-      </c>
       <c r="AG117">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH117">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI117">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ117">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK117">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL117">
         <v>10</v>
@@ -24563,58 +24488,58 @@
         <v>11</v>
       </c>
       <c r="AN117">
+        <v>15</v>
+      </c>
+      <c r="AO117">
+        <v>16.5</v>
+      </c>
+      <c r="AP117">
+        <v>38</v>
+      </c>
+      <c r="AQ117">
+        <v>44</v>
+      </c>
+      <c r="AR117">
+        <v>27</v>
+      </c>
+      <c r="AS117">
+        <v>29</v>
+      </c>
+      <c r="AT117">
+        <v>21</v>
+      </c>
+      <c r="AU117">
+        <v>23</v>
+      </c>
+      <c r="AV117">
+        <v>30</v>
+      </c>
+      <c r="AW117">
+        <v>34</v>
+      </c>
+      <c r="AX117">
+        <v>60</v>
+      </c>
+      <c r="AY117">
+        <v>80</v>
+      </c>
+      <c r="AZ117">
         <v>14</v>
       </c>
-      <c r="AO117">
+      <c r="BA117">
         <v>15.5</v>
       </c>
-      <c r="AP117">
-        <v>34</v>
-      </c>
-      <c r="AQ117">
-        <v>38</v>
-      </c>
-      <c r="AR117">
-        <v>26</v>
-      </c>
-      <c r="AS117">
-        <v>32</v>
-      </c>
-      <c r="AT117">
-        <v>19.5</v>
-      </c>
-      <c r="AU117">
-        <v>22</v>
-      </c>
-      <c r="AV117">
-        <v>28</v>
-      </c>
-      <c r="AW117">
-        <v>32</v>
-      </c>
-      <c r="AX117">
-        <v>32</v>
-      </c>
-      <c r="AY117">
-        <v>70</v>
-      </c>
-      <c r="AZ117">
-        <v>12</v>
-      </c>
-      <c r="BA117">
-        <v>14</v>
-      </c>
       <c r="BB117">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BC117">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="BD117">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="BE117">
-        <v>530</v>
+        <v>980</v>
       </c>
       <c r="BF117">
         <v>33117773</v>
@@ -24658,97 +24583,97 @@
         <v>368</v>
       </c>
       <c r="F118">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G118">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I118">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J118">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K118">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L118">
+        <v>2.32</v>
+      </c>
+      <c r="M118">
+        <v>2.4</v>
+      </c>
+      <c r="N118">
+        <v>1.72</v>
+      </c>
+      <c r="O118">
+        <v>1.75</v>
+      </c>
+      <c r="P118">
+        <v>1.77</v>
+      </c>
+      <c r="Q118">
+        <v>1.81</v>
+      </c>
+      <c r="R118">
+        <v>2.24</v>
+      </c>
+      <c r="S118">
         <v>2.3</v>
-      </c>
-      <c r="M118">
-        <v>2.46</v>
-      </c>
-      <c r="N118">
-        <v>1.69</v>
-      </c>
-      <c r="O118">
-        <v>1.77</v>
-      </c>
-      <c r="P118">
-        <v>1.78</v>
-      </c>
-      <c r="Q118">
-        <v>1.97</v>
-      </c>
-      <c r="R118">
-        <v>2.16</v>
-      </c>
-      <c r="S118">
-        <v>2.32</v>
       </c>
       <c r="T118">
         <v>17.5</v>
       </c>
       <c r="U118">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="V118">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W118">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X118">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y118">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z118">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AA118">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB118">
         <v>9.4</v>
       </c>
       <c r="AC118">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD118">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AE118">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AF118">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG118">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH118">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI118">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ118">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AK118">
         <v>11</v>
@@ -24757,61 +24682,61 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AM118">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AN118">
+        <v>17</v>
+      </c>
+      <c r="AO118">
         <v>18</v>
       </c>
-      <c r="AO118">
-        <v>20</v>
-      </c>
       <c r="AP118">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AQ118">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AR118">
+        <v>15</v>
+      </c>
+      <c r="AS118">
+        <v>17</v>
+      </c>
+      <c r="AT118">
         <v>14.5</v>
       </c>
-      <c r="AS118">
+      <c r="AU118">
         <v>16</v>
       </c>
-      <c r="AT118">
-        <v>14</v>
-      </c>
-      <c r="AU118">
-        <v>15.5</v>
-      </c>
       <c r="AV118">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW118">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX118">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AY118">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AZ118">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BA118">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="BB118">
         <v>38</v>
       </c>
       <c r="BC118">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD118">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="BE118">
-        <v>810</v>
+        <v>980</v>
       </c>
       <c r="BF118">
         <v>33117771</v>
@@ -24855,37 +24780,37 @@
         <v>369</v>
       </c>
       <c r="F119">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G119">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="H119">
+        <v>4.5</v>
+      </c>
+      <c r="I119">
         <v>4.6</v>
       </c>
-      <c r="I119">
-        <v>4.8</v>
-      </c>
       <c r="J119">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K119">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L119">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="M119">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="N119">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="P119">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q119">
         <v>1.77</v>
@@ -24894,19 +24819,19 @@
         <v>2.3</v>
       </c>
       <c r="S119">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T119">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="U119">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="V119">
         <v>17.5</v>
       </c>
       <c r="W119">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X119">
         <v>32</v>
@@ -24921,28 +24846,28 @@
         <v>95</v>
       </c>
       <c r="AB119">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC119">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD119">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE119">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF119">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG119">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH119">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI119">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ119">
         <v>11</v>
@@ -24954,7 +24879,7 @@
         <v>9.4</v>
       </c>
       <c r="AM119">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AN119">
         <v>16</v>
@@ -24963,28 +24888,28 @@
         <v>17.5</v>
       </c>
       <c r="AP119">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AQ119">
         <v>55</v>
       </c>
       <c r="AR119">
+        <v>19</v>
+      </c>
+      <c r="AS119">
+        <v>21</v>
+      </c>
+      <c r="AT119">
+        <v>16.5</v>
+      </c>
+      <c r="AU119">
         <v>18</v>
-      </c>
-      <c r="AS119">
-        <v>20</v>
-      </c>
-      <c r="AT119">
-        <v>16</v>
-      </c>
-      <c r="AU119">
-        <v>17.5</v>
       </c>
       <c r="AV119">
         <v>27</v>
       </c>
       <c r="AW119">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AX119">
         <v>36</v>
@@ -24993,22 +24918,22 @@
         <v>85</v>
       </c>
       <c r="AZ119">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB119">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BC119">
         <v>46</v>
       </c>
       <c r="BD119">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BE119">
-        <v>660</v>
+        <v>980</v>
       </c>
       <c r="BF119">
         <v>33116208</v>
@@ -25052,76 +24977,76 @@
         <v>370</v>
       </c>
       <c r="F120">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="H120">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="I120">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="J120">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K120">
         <v>3.75</v>
       </c>
       <c r="L120">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="M120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
+        <v>2.24</v>
+      </c>
+      <c r="O120">
+        <v>2.3</v>
+      </c>
+      <c r="P120">
         <v>2.04</v>
       </c>
-      <c r="O120">
+      <c r="Q120">
         <v>2.1</v>
       </c>
-      <c r="P120">
-        <v>1.91</v>
-      </c>
-      <c r="Q120">
-        <v>1.99</v>
-      </c>
       <c r="R120">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="S120">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="T120">
+        <v>10.5</v>
+      </c>
+      <c r="U120">
         <v>12</v>
       </c>
-      <c r="U120">
-        <v>16</v>
-      </c>
       <c r="V120">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W120">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X120">
         <v>29</v>
       </c>
       <c r="Y120">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z120">
         <v>38</v>
       </c>
       <c r="AA120">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AB120">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC120">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD120">
         <v>7.6</v>
@@ -25130,79 +25055,79 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF120">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG120">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH120">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AI120">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ120">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK120">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AL120">
         <v>9.800000000000001</v>
       </c>
       <c r="AM120">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN120">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO120">
+        <v>22</v>
+      </c>
+      <c r="AP120">
+        <v>60</v>
+      </c>
+      <c r="AQ120">
+        <v>85</v>
+      </c>
+      <c r="AR120">
+        <v>19</v>
+      </c>
+      <c r="AS120">
+        <v>21</v>
+      </c>
+      <c r="AT120">
         <v>20</v>
       </c>
-      <c r="AP120">
-        <v>36</v>
-      </c>
-      <c r="AQ120">
-        <v>70</v>
-      </c>
-      <c r="AR120">
-        <v>19.5</v>
-      </c>
-      <c r="AS120">
+      <c r="AU120">
         <v>22</v>
       </c>
-      <c r="AT120">
-        <v>19</v>
-      </c>
-      <c r="AU120">
-        <v>21</v>
-      </c>
       <c r="AV120">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AW120">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AX120">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AY120">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AZ120">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA120">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB120">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BC120">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="BD120">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE120">
         <v>1000</v>
@@ -25249,46 +25174,46 @@
         <v>371</v>
       </c>
       <c r="F121">
+        <v>3.45</v>
+      </c>
+      <c r="G121">
+        <v>4.8</v>
+      </c>
+      <c r="H121">
+        <v>2.02</v>
+      </c>
+      <c r="I121">
+        <v>2.24</v>
+      </c>
+      <c r="J121">
         <v>3.35</v>
       </c>
-      <c r="G121">
-        <v>5.2</v>
-      </c>
-      <c r="H121">
-        <v>1.93</v>
-      </c>
-      <c r="I121">
-        <v>2.2</v>
-      </c>
-      <c r="J121">
-        <v>3.3</v>
-      </c>
       <c r="K121">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="L121">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M121">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N121">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O121">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="P121">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q121">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="R121">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="S121">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="T121">
         <v>1.49</v>
@@ -25297,19 +25222,19 @@
         <v>1000</v>
       </c>
       <c r="V121">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="W121">
         <v>1000</v>
       </c>
       <c r="X121">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="Y121">
         <v>1000</v>
       </c>
       <c r="Z121">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AA121">
         <v>1000</v>
@@ -25404,8 +25329,8 @@
       <c r="BE121">
         <v>1000</v>
       </c>
-      <c r="BF121" t="s">
-        <v>384</v>
+      <c r="BF121">
+        <v>33127931</v>
       </c>
       <c r="BG121">
         <v>10932747</v>
@@ -25416,17 +25341,17 @@
       <c r="BI121">
         <v>58805</v>
       </c>
-      <c r="BJ121" t="s">
-        <v>389</v>
-      </c>
-      <c r="BK121" t="s">
-        <v>394</v>
-      </c>
-      <c r="BL121" t="s">
-        <v>399</v>
-      </c>
-      <c r="BM121" t="s">
-        <v>404</v>
+      <c r="BJ121">
+        <v>1.226495135</v>
+      </c>
+      <c r="BK121">
+        <v>1.226495138</v>
+      </c>
+      <c r="BL121">
+        <v>1.226495182</v>
+      </c>
+      <c r="BM121">
+        <v>1.226495183</v>
       </c>
     </row>
     <row r="122" spans="1:65">
@@ -25446,82 +25371,82 @@
         <v>372</v>
       </c>
       <c r="F122">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G122">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H122">
         <v>3.5</v>
       </c>
       <c r="I122">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J122">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K122">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L122">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="O122">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="P122">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="Q122">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="R122">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="S122">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="T122">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U122">
+        <v>20</v>
+      </c>
+      <c r="V122">
+        <v>16.5</v>
+      </c>
+      <c r="W122">
+        <v>18</v>
+      </c>
+      <c r="X122">
         <v>25</v>
       </c>
-      <c r="V122">
-        <v>19</v>
-      </c>
-      <c r="W122">
-        <v>22</v>
-      </c>
-      <c r="X122">
-        <v>27</v>
-      </c>
       <c r="Y122">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z122">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA122">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB122">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC122">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD122">
+        <v>8.4</v>
+      </c>
+      <c r="AE122">
         <v>9</v>
-      </c>
-      <c r="AE122">
-        <v>10</v>
       </c>
       <c r="AF122">
         <v>14</v>
@@ -25536,70 +25461,70 @@
         <v>34</v>
       </c>
       <c r="AJ122">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK122">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL122">
         <v>10</v>
       </c>
       <c r="AM122">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN122">
         <v>14</v>
       </c>
       <c r="AO122">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP122">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AQ122">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AR122">
         <v>24</v>
       </c>
       <c r="AS122">
+        <v>27</v>
+      </c>
+      <c r="AT122">
+        <v>18</v>
+      </c>
+      <c r="AU122">
+        <v>20</v>
+      </c>
+      <c r="AV122">
         <v>26</v>
       </c>
-      <c r="AT122">
-        <v>16.5</v>
-      </c>
-      <c r="AU122">
-        <v>18.5</v>
-      </c>
-      <c r="AV122">
+      <c r="AW122">
+        <v>29</v>
+      </c>
+      <c r="AX122">
+        <v>46</v>
+      </c>
+      <c r="AY122">
+        <v>65</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>12</v>
+      </c>
+      <c r="BB122">
         <v>22</v>
       </c>
-      <c r="AW122">
-        <v>25</v>
-      </c>
-      <c r="AX122">
-        <v>28</v>
-      </c>
-      <c r="AY122">
-        <v>55</v>
-      </c>
-      <c r="AZ122">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BA122">
-        <v>9</v>
-      </c>
-      <c r="BB122">
+      <c r="BC122">
+        <v>26</v>
+      </c>
+      <c r="BD122">
         <v>18</v>
       </c>
-      <c r="BC122">
-        <v>22</v>
-      </c>
-      <c r="BD122">
-        <v>17.5</v>
-      </c>
       <c r="BE122">
-        <v>350</v>
+        <v>980</v>
       </c>
       <c r="BF122">
         <v>33116323</v>
@@ -25646,157 +25571,157 @@
         <v>2.04</v>
       </c>
       <c r="G123">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H123">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I123">
         <v>3.9</v>
       </c>
       <c r="J123">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K123">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L123">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="M123">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="N123">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O123">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P123">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q123">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R123">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="S123">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="T123">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="U123">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="V123">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="W123">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X123">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="Y123">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z123">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="AA123">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB123">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC123">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD123">
         <v>8</v>
       </c>
       <c r="AE123">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF123">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG123">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AH123">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="AI123">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ123">
         <v>12.5</v>
       </c>
       <c r="AK123">
+        <v>14</v>
+      </c>
+      <c r="AL123">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM123">
+        <v>10.5</v>
+      </c>
+      <c r="AN123">
+        <v>15</v>
+      </c>
+      <c r="AO123">
         <v>16</v>
       </c>
-      <c r="AL123">
-        <v>9.6</v>
-      </c>
-      <c r="AM123">
-        <v>11</v>
-      </c>
-      <c r="AN123">
-        <v>14.5</v>
-      </c>
-      <c r="AO123">
-        <v>18.5</v>
-      </c>
       <c r="AP123">
-        <v>1.01</v>
+        <v>40</v>
       </c>
       <c r="AQ123">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AR123">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="AS123">
+        <v>25</v>
+      </c>
+      <c r="AT123">
+        <v>18</v>
+      </c>
+      <c r="AU123">
+        <v>20</v>
+      </c>
+      <c r="AV123">
+        <v>27</v>
+      </c>
+      <c r="AW123">
+        <v>29</v>
+      </c>
+      <c r="AX123">
+        <v>48</v>
+      </c>
+      <c r="AY123">
+        <v>75</v>
+      </c>
+      <c r="AZ123">
+        <v>10.5</v>
+      </c>
+      <c r="BA123">
+        <v>12.5</v>
+      </c>
+      <c r="BB123">
         <v>28</v>
       </c>
-      <c r="AT123">
-        <v>17.5</v>
-      </c>
-      <c r="AU123">
-        <v>22</v>
-      </c>
-      <c r="AV123">
-        <v>1.01</v>
-      </c>
-      <c r="AW123">
-        <v>34</v>
-      </c>
-      <c r="AX123">
-        <v>1.01</v>
-      </c>
-      <c r="AY123">
-        <v>85</v>
-      </c>
-      <c r="AZ123">
-        <v>1.01</v>
-      </c>
-      <c r="BA123">
-        <v>13.5</v>
-      </c>
-      <c r="BB123">
-        <v>1.01</v>
-      </c>
       <c r="BC123">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BD123">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BE123">
-        <v>630</v>
+        <v>980</v>
       </c>
       <c r="BF123">
         <v>33116325</v>
@@ -25840,160 +25765,160 @@
         <v>374</v>
       </c>
       <c r="F124">
+        <v>2.06</v>
+      </c>
+      <c r="G124">
         <v>2.08</v>
-      </c>
-      <c r="G124">
-        <v>2.16</v>
       </c>
       <c r="H124">
         <v>3.65</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J124">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L124">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="M124">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="N124">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O124">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="P124">
         <v>1.66</v>
       </c>
       <c r="Q124">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R124">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="S124">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="T124">
+        <v>16.5</v>
+      </c>
+      <c r="U124">
+        <v>18</v>
+      </c>
+      <c r="V124">
+        <v>16</v>
+      </c>
+      <c r="W124">
+        <v>17.5</v>
+      </c>
+      <c r="X124">
+        <v>26</v>
+      </c>
+      <c r="Y124">
+        <v>29</v>
+      </c>
+      <c r="Z124">
+        <v>38</v>
+      </c>
+      <c r="AA124">
+        <v>75</v>
+      </c>
+      <c r="AB124">
+        <v>10.5</v>
+      </c>
+      <c r="AC124">
+        <v>12</v>
+      </c>
+      <c r="AD124">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE124">
+        <v>9</v>
+      </c>
+      <c r="AF124">
+        <v>14</v>
+      </c>
+      <c r="AG124">
+        <v>15.5</v>
+      </c>
+      <c r="AH124">
+        <v>34</v>
+      </c>
+      <c r="AI124">
+        <v>40</v>
+      </c>
+      <c r="AJ124">
+        <v>13</v>
+      </c>
+      <c r="AK124">
         <v>14.5</v>
       </c>
-      <c r="U124">
+      <c r="AL124">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM124">
+        <v>11</v>
+      </c>
+      <c r="AN124">
+        <v>15</v>
+      </c>
+      <c r="AO124">
+        <v>16.5</v>
+      </c>
+      <c r="AP124">
+        <v>38</v>
+      </c>
+      <c r="AQ124">
+        <v>980</v>
+      </c>
+      <c r="AR124">
+        <v>22</v>
+      </c>
+      <c r="AS124">
+        <v>25</v>
+      </c>
+      <c r="AT124">
+        <v>17.5</v>
+      </c>
+      <c r="AU124">
         <v>19.5</v>
       </c>
-      <c r="V124">
-        <v>13.5</v>
-      </c>
-      <c r="W124">
+      <c r="AV124">
+        <v>27</v>
+      </c>
+      <c r="AW124">
+        <v>30</v>
+      </c>
+      <c r="AX124">
+        <v>15</v>
+      </c>
+      <c r="AY124">
+        <v>75</v>
+      </c>
+      <c r="AZ124">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BA124">
+        <v>11.5</v>
+      </c>
+      <c r="BB124">
+        <v>25</v>
+      </c>
+      <c r="BC124">
+        <v>32</v>
+      </c>
+      <c r="BD124">
         <v>18</v>
       </c>
-      <c r="X124">
-        <v>5.9</v>
-      </c>
-      <c r="Y124">
-        <v>30</v>
-      </c>
-      <c r="Z124">
-        <v>6.6</v>
-      </c>
-      <c r="AA124">
-        <v>70</v>
-      </c>
-      <c r="AB124">
-        <v>9.6</v>
-      </c>
-      <c r="AC124">
-        <v>13</v>
-      </c>
-      <c r="AD124">
-        <v>8</v>
-      </c>
-      <c r="AE124">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AF124">
-        <v>12</v>
-      </c>
-      <c r="AG124">
-        <v>16.5</v>
-      </c>
-      <c r="AH124">
-        <v>6.2</v>
-      </c>
-      <c r="AI124">
-        <v>42</v>
-      </c>
-      <c r="AJ124">
-        <v>12</v>
-      </c>
-      <c r="AK124">
-        <v>16</v>
-      </c>
-      <c r="AL124">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM124">
-        <v>12</v>
-      </c>
-      <c r="AN124">
-        <v>13.5</v>
-      </c>
-      <c r="AO124">
-        <v>18.5</v>
-      </c>
-      <c r="AP124">
-        <v>6.4</v>
-      </c>
-      <c r="AQ124">
-        <v>48</v>
-      </c>
-      <c r="AR124">
-        <v>21</v>
-      </c>
-      <c r="AS124">
-        <v>29</v>
-      </c>
-      <c r="AT124">
-        <v>16.5</v>
-      </c>
-      <c r="AU124">
-        <v>23</v>
-      </c>
-      <c r="AV124">
-        <v>6</v>
-      </c>
-      <c r="AW124">
-        <v>36</v>
-      </c>
-      <c r="AX124">
-        <v>6.8</v>
-      </c>
-      <c r="AY124">
-        <v>85</v>
-      </c>
-      <c r="AZ124">
-        <v>4.8</v>
-      </c>
-      <c r="BA124">
-        <v>14</v>
-      </c>
-      <c r="BB124">
-        <v>6</v>
-      </c>
-      <c r="BC124">
-        <v>34</v>
-      </c>
-      <c r="BD124">
-        <v>7.2</v>
-      </c>
       <c r="BE124">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF124">
         <v>33116191</v>
@@ -26037,46 +25962,46 @@
         <v>375</v>
       </c>
       <c r="F125">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G125">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H125">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I125">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J125">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K125">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L125">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="M125">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N125">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="O125">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q125">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R125">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T125">
         <v>11</v>
@@ -26088,106 +26013,106 @@
         <v>17</v>
       </c>
       <c r="W125">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="X125">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y125">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="Z125">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA125">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AB125">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC125">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD125">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AE125">
+        <v>980</v>
+      </c>
+      <c r="AF125">
+        <v>22</v>
+      </c>
+      <c r="AG125">
+        <v>980</v>
+      </c>
+      <c r="AH125">
+        <v>8.4</v>
+      </c>
+      <c r="AI125">
+        <v>980</v>
+      </c>
+      <c r="AJ125">
+        <v>7.4</v>
+      </c>
+      <c r="AK125">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL125">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM125">
         <v>11</v>
-      </c>
-      <c r="AF125">
-        <v>5.8</v>
-      </c>
-      <c r="AG125">
-        <v>32</v>
-      </c>
-      <c r="AH125">
-        <v>6.8</v>
-      </c>
-      <c r="AI125">
-        <v>130</v>
-      </c>
-      <c r="AJ125">
-        <v>7</v>
-      </c>
-      <c r="AK125">
-        <v>9.4</v>
-      </c>
-      <c r="AL125">
-        <v>8.4</v>
-      </c>
-      <c r="AM125">
-        <v>11.5</v>
       </c>
       <c r="AN125">
         <v>21</v>
       </c>
       <c r="AO125">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AP125">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AQ125">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AR125">
         <v>11.5</v>
       </c>
       <c r="AS125">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AT125">
         <v>14.5</v>
       </c>
       <c r="AU125">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AV125">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW125">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AX125">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AY125">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AZ125">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BA125">
         <v>10.5</v>
       </c>
       <c r="BB125">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="BC125">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="BD125">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE125">
         <v>1000</v>
@@ -26234,157 +26159,157 @@
         <v>376</v>
       </c>
       <c r="F126">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G126">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="H126">
+        <v>3.9</v>
+      </c>
+      <c r="I126">
+        <v>4.1</v>
+      </c>
+      <c r="J126">
+        <v>3.45</v>
+      </c>
+      <c r="K126">
         <v>3.55</v>
       </c>
-      <c r="I126">
-        <v>3.8</v>
-      </c>
-      <c r="J126">
-        <v>3.4</v>
-      </c>
-      <c r="K126">
-        <v>3.6</v>
-      </c>
       <c r="L126">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M126">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="N126">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="O126">
         <v>2.28</v>
       </c>
       <c r="P126">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="Q126">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T126">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U126">
+        <v>12</v>
+      </c>
+      <c r="V126">
+        <v>11.5</v>
+      </c>
+      <c r="W126">
         <v>13</v>
       </c>
-      <c r="V126">
-        <v>11</v>
-      </c>
-      <c r="W126">
-        <v>13.5</v>
-      </c>
       <c r="X126">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y126">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z126">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="AA126">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB126">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC126">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD126">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE126">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF126">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG126">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH126">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="AI126">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ126">
         <v>11.5</v>
       </c>
       <c r="AK126">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL126">
         <v>10</v>
       </c>
       <c r="AM126">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN126">
+        <v>18</v>
+      </c>
+      <c r="AO126">
+        <v>20</v>
+      </c>
+      <c r="AP126">
+        <v>65</v>
+      </c>
+      <c r="AQ126">
+        <v>70</v>
+      </c>
+      <c r="AR126">
+        <v>24</v>
+      </c>
+      <c r="AS126">
+        <v>26</v>
+      </c>
+      <c r="AT126">
+        <v>22</v>
+      </c>
+      <c r="AU126">
+        <v>24</v>
+      </c>
+      <c r="AV126">
+        <v>38</v>
+      </c>
+      <c r="AW126">
+        <v>44</v>
+      </c>
+      <c r="AX126">
+        <v>42</v>
+      </c>
+      <c r="AY126">
+        <v>130</v>
+      </c>
+      <c r="AZ126">
+        <v>17</v>
+      </c>
+      <c r="BA126">
+        <v>18.5</v>
+      </c>
+      <c r="BB126">
+        <v>50</v>
+      </c>
+      <c r="BC126">
+        <v>70</v>
+      </c>
+      <c r="BD126">
         <v>17.5</v>
-      </c>
-      <c r="AO126">
-        <v>22</v>
-      </c>
-      <c r="AP126">
-        <v>1.01</v>
-      </c>
-      <c r="AQ126">
-        <v>65</v>
-      </c>
-      <c r="AR126">
-        <v>1.01</v>
-      </c>
-      <c r="AS126">
-        <v>30</v>
-      </c>
-      <c r="AT126">
-        <v>1.01</v>
-      </c>
-      <c r="AU126">
-        <v>28</v>
-      </c>
-      <c r="AV126">
-        <v>1.01</v>
-      </c>
-      <c r="AW126">
-        <v>48</v>
-      </c>
-      <c r="AX126">
-        <v>1.01</v>
-      </c>
-      <c r="AY126">
-        <v>140</v>
-      </c>
-      <c r="AZ126">
-        <v>1.01</v>
-      </c>
-      <c r="BA126">
-        <v>22</v>
-      </c>
-      <c r="BB126">
-        <v>1.01</v>
-      </c>
-      <c r="BC126">
-        <v>55</v>
-      </c>
-      <c r="BD126">
-        <v>1.01</v>
       </c>
       <c r="BE126">
         <v>1000</v>
@@ -26431,85 +26356,85 @@
         <v>377</v>
       </c>
       <c r="F127">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="H127">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I127">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J127">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K127">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L127">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="M127">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="N127">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="O127">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="P127">
+        <v>1.67</v>
+      </c>
+      <c r="Q127">
         <v>1.72</v>
       </c>
-      <c r="Q127">
-        <v>1.77</v>
-      </c>
       <c r="R127">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S127">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T127">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U127">
+        <v>19</v>
+      </c>
+      <c r="V127">
         <v>16.5</v>
       </c>
-      <c r="V127">
-        <v>15</v>
-      </c>
       <c r="W127">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X127">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y127">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z127">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AA127">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB127">
         <v>10</v>
       </c>
       <c r="AC127">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD127">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AE127">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AF127">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG127">
         <v>15.5</v>
@@ -26521,7 +26446,7 @@
         <v>40</v>
       </c>
       <c r="AJ127">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK127">
         <v>14</v>
@@ -26533,10 +26458,10 @@
         <v>10.5</v>
       </c>
       <c r="AN127">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO127">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP127">
         <v>40</v>
@@ -26548,43 +26473,43 @@
         <v>22</v>
       </c>
       <c r="AS127">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT127">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AU127">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV127">
+        <v>27</v>
+      </c>
+      <c r="AW127">
         <v>29</v>
-      </c>
-      <c r="AW127">
-        <v>34</v>
       </c>
       <c r="AX127">
         <v>38</v>
       </c>
       <c r="AY127">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
         <v>11</v>
       </c>
-      <c r="BA127">
-        <v>12.5</v>
-      </c>
       <c r="BB127">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BC127">
         <v>34</v>
       </c>
       <c r="BD127">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE127">
-        <v>750</v>
+        <v>980</v>
       </c>
       <c r="BF127">
         <v>33116327</v>
@@ -26628,157 +26553,157 @@
         <v>378</v>
       </c>
       <c r="F128">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="G128">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="H128">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="I128">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="J128">
+        <v>3.25</v>
+      </c>
+      <c r="K128">
         <v>3.3</v>
       </c>
-      <c r="K128">
-        <v>3.45</v>
-      </c>
       <c r="L128">
+        <v>1.71</v>
+      </c>
+      <c r="M128">
         <v>1.76</v>
       </c>
-      <c r="M128">
+      <c r="N128">
+        <v>2.32</v>
+      </c>
+      <c r="O128">
+        <v>2.4</v>
+      </c>
+      <c r="P128">
         <v>1.94</v>
       </c>
-      <c r="N128">
+      <c r="Q128">
+        <v>2.08</v>
+      </c>
+      <c r="R128">
+        <v>1.94</v>
+      </c>
+      <c r="S128">
         <v>2.06</v>
       </c>
-      <c r="O128">
-        <v>2.32</v>
-      </c>
-      <c r="P128">
-        <v>1.83</v>
-      </c>
-      <c r="Q128">
-        <v>2</v>
-      </c>
-      <c r="R128">
-        <v>2</v>
-      </c>
-      <c r="S128">
-        <v>2.22</v>
-      </c>
       <c r="T128">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U128">
+        <v>11</v>
+      </c>
+      <c r="V128">
+        <v>9.4</v>
+      </c>
+      <c r="W128">
+        <v>11.5</v>
+      </c>
+      <c r="X128">
+        <v>17</v>
+      </c>
+      <c r="Y128">
+        <v>21</v>
+      </c>
+      <c r="Z128">
+        <v>28</v>
+      </c>
+      <c r="AA128">
+        <v>60</v>
+      </c>
+      <c r="AB128">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC128">
+        <v>10</v>
+      </c>
+      <c r="AD128">
+        <v>6.8</v>
+      </c>
+      <c r="AE128">
+        <v>7.8</v>
+      </c>
+      <c r="AF128">
+        <v>13</v>
+      </c>
+      <c r="AG128">
+        <v>15</v>
+      </c>
+      <c r="AH128">
+        <v>32</v>
+      </c>
+      <c r="AI128">
+        <v>44</v>
+      </c>
+      <c r="AJ128">
         <v>14</v>
       </c>
-      <c r="V128">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="W128">
-        <v>13</v>
-      </c>
-      <c r="X128">
-        <v>15</v>
-      </c>
-      <c r="Y128">
-        <v>23</v>
-      </c>
-      <c r="Z128">
-        <v>1.01</v>
-      </c>
-      <c r="AA128">
+      <c r="AK128">
+        <v>19</v>
+      </c>
+      <c r="AL128">
+        <v>11</v>
+      </c>
+      <c r="AM128">
+        <v>13.5</v>
+      </c>
+      <c r="AN128">
+        <v>17.5</v>
+      </c>
+      <c r="AO128">
+        <v>22</v>
+      </c>
+      <c r="AP128">
+        <v>30</v>
+      </c>
+      <c r="AQ128">
+        <v>65</v>
+      </c>
+      <c r="AR128">
+        <v>32</v>
+      </c>
+      <c r="AS128">
+        <v>46</v>
+      </c>
+      <c r="AT128">
+        <v>28</v>
+      </c>
+      <c r="AU128">
+        <v>34</v>
+      </c>
+      <c r="AV128">
+        <v>40</v>
+      </c>
+      <c r="AW128">
         <v>55</v>
       </c>
-      <c r="AB128">
-        <v>8.6</v>
-      </c>
-      <c r="AC128">
-        <v>11.5</v>
-      </c>
-      <c r="AD128">
-        <v>6.4</v>
-      </c>
-      <c r="AE128">
-        <v>8.4</v>
-      </c>
-      <c r="AF128">
-        <v>10.5</v>
-      </c>
-      <c r="AG128">
-        <v>16</v>
-      </c>
-      <c r="AH128">
-        <v>1.01</v>
-      </c>
-      <c r="AI128">
-        <v>42</v>
-      </c>
-      <c r="AJ128">
-        <v>12.5</v>
-      </c>
-      <c r="AK128">
-        <v>22</v>
-      </c>
-      <c r="AL128">
-        <v>10</v>
-      </c>
-      <c r="AM128">
-        <v>15.5</v>
-      </c>
-      <c r="AN128">
-        <v>15.5</v>
-      </c>
-      <c r="AO128">
-        <v>23</v>
-      </c>
-      <c r="AP128">
-        <v>1.01</v>
-      </c>
-      <c r="AQ128">
-        <v>60</v>
-      </c>
-      <c r="AR128">
-        <v>1.01</v>
-      </c>
-      <c r="AS128">
-        <v>55</v>
-      </c>
-      <c r="AT128">
-        <v>1.01</v>
-      </c>
-      <c r="AU128">
+      <c r="AX128">
         <v>40</v>
       </c>
-      <c r="AV128">
-        <v>1.01</v>
-      </c>
-      <c r="AW128">
-        <v>60</v>
-      </c>
-      <c r="AX128">
-        <v>1.01</v>
-      </c>
       <c r="AY128">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AZ128">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BA128">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB128">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="BC128">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="BD128">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BE128">
         <v>1000</v>
@@ -26825,157 +26750,157 @@
         <v>379</v>
       </c>
       <c r="F129">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G129">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H129">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="I129">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J129">
         <v>4.5</v>
       </c>
       <c r="K129">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="M129">
+        <v>2.08</v>
+      </c>
+      <c r="N129">
+        <v>1.94</v>
+      </c>
+      <c r="O129">
+        <v>2.02</v>
+      </c>
+      <c r="P129">
+        <v>2.08</v>
+      </c>
+      <c r="Q129">
         <v>2.22</v>
       </c>
-      <c r="N129">
-        <v>1.81</v>
-      </c>
-      <c r="O129">
-        <v>2</v>
-      </c>
-      <c r="P129">
-        <v>1.96</v>
-      </c>
-      <c r="Q129">
-        <v>2.16</v>
-      </c>
       <c r="R129">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S129">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T129">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U129">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="V129">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="W129">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X129">
-        <v>1.01</v>
+        <v>44</v>
       </c>
       <c r="Y129">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z129">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="AA129">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AB129">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AC129">
+        <v>7.8</v>
+      </c>
+      <c r="AD129">
+        <v>9.4</v>
+      </c>
+      <c r="AE129">
         <v>10</v>
       </c>
-      <c r="AD129">
-        <v>8.6</v>
-      </c>
-      <c r="AE129">
-        <v>12</v>
-      </c>
       <c r="AF129">
-        <v>1.01</v>
+        <v>27</v>
       </c>
       <c r="AG129">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH129">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="AI129">
         <v>140</v>
       </c>
       <c r="AJ129">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AK129">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL129">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM129">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AN129">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO129">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AP129">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="AQ129">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AR129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS129">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AT129">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AU129">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AV129">
-        <v>1.01</v>
+        <v>34</v>
       </c>
       <c r="AW129">
+        <v>40</v>
+      </c>
+      <c r="AX129">
+        <v>44</v>
+      </c>
+      <c r="AY129">
+        <v>180</v>
+      </c>
+      <c r="AZ129">
+        <v>7</v>
+      </c>
+      <c r="BA129">
+        <v>8</v>
+      </c>
+      <c r="BB129">
         <v>46</v>
       </c>
-      <c r="AX129">
-        <v>9.6</v>
-      </c>
-      <c r="AY129">
-        <v>190</v>
-      </c>
-      <c r="AZ129">
-        <v>1.01</v>
-      </c>
-      <c r="BA129">
-        <v>9</v>
-      </c>
-      <c r="BB129">
-        <v>1.01</v>
-      </c>
       <c r="BC129">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="BD129">
-        <v>1.01</v>
+        <v>19.5</v>
       </c>
       <c r="BE129">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-23.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-23.xlsx
@@ -23010,43 +23010,43 @@
         <v>2.26</v>
       </c>
       <c r="G110">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H110">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I110">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J110">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K110">
         <v>3.7</v>
       </c>
       <c r="L110">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="M110">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="N110">
         <v>2.02</v>
       </c>
       <c r="O110">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P110">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="Q110">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R110">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S110">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T110">
         <v>11.5</v>
@@ -23055,28 +23055,28 @@
         <v>16</v>
       </c>
       <c r="V110">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W110">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X110">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y110">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z110">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA110">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB110">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC110">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD110">
         <v>7.2</v>
@@ -23085,22 +23085,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF110">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG110">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH110">
         <v>29</v>
       </c>
       <c r="AI110">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ110">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK110">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL110">
         <v>10</v>
@@ -23109,22 +23109,22 @@
         <v>13.5</v>
       </c>
       <c r="AN110">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO110">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP110">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AQ110">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AR110">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="AS110">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT110">
         <v>18</v>
@@ -23133,31 +23133,31 @@
         <v>30</v>
       </c>
       <c r="AV110">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="AW110">
         <v>48</v>
       </c>
       <c r="AX110">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="AY110">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ110">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="BA110">
         <v>22</v>
       </c>
       <c r="BB110">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="BC110">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD110">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="BE110">
         <v>1000</v>
@@ -23204,10 +23204,10 @@
         <v>361</v>
       </c>
       <c r="F111">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G111">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -23216,16 +23216,16 @@
         <v>5.1</v>
       </c>
       <c r="J111">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K111">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L111">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M111">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="N111">
         <v>2.4</v>
@@ -23237,124 +23237,124 @@
         <v>2.04</v>
       </c>
       <c r="Q111">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R111">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="S111">
         <v>1.96</v>
       </c>
       <c r="T111">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U111">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V111">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="W111">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X111">
-        <v>5.4</v>
+        <v>29</v>
       </c>
       <c r="Y111">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z111">
-        <v>5.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA111">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB111">
         <v>6.8</v>
       </c>
       <c r="AC111">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD111">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE111">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF111">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG111">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH111">
-        <v>5.4</v>
+        <v>46</v>
       </c>
       <c r="AI111">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ111">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK111">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AL111">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AM111">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN111">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AO111">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AP111">
-        <v>5.5</v>
+        <v>65</v>
       </c>
       <c r="AQ111">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AR111">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AS111">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AT111">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AU111">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AV111">
-        <v>5.3</v>
+        <v>42</v>
       </c>
       <c r="AW111">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AX111">
-        <v>5.7</v>
+        <v>75</v>
       </c>
       <c r="AY111">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ111">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA111">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB111">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="BC111">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD111">
-        <v>5.8</v>
+        <v>16</v>
       </c>
       <c r="BE111">
         <v>1000</v>
@@ -23401,157 +23401,157 @@
         <v>362</v>
       </c>
       <c r="F112">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="G112">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="H112">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="I112">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="J112">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="K112">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="L112">
         <v>1.87</v>
       </c>
       <c r="M112">
-        <v>2.8</v>
+        <v>2.06</v>
       </c>
       <c r="N112">
-        <v>1.56</v>
+        <v>1.94</v>
       </c>
       <c r="O112">
         <v>2.14</v>
       </c>
       <c r="P112">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q112">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R112">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="S112">
         <v>1.82</v>
       </c>
       <c r="T112">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="U112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V112">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="W112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X112">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="Y112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z112">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="AA112">
         <v>1000</v>
       </c>
       <c r="AB112">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="AC112">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD112">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AE112">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AF112">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AG112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH112">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="AI112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ112">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="AK112">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AL112">
-        <v>2.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM112">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN112">
-        <v>1.03</v>
+        <v>5.5</v>
       </c>
       <c r="AO112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP112">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="AQ112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR112">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AS112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT112">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="AU112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV112">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="AW112">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX112">
         <v>19.5</v>
       </c>
       <c r="AY112">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ112">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="BA112">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="BB112">
-        <v>1.55</v>
+        <v>4.4</v>
       </c>
       <c r="BC112">
         <v>1000</v>
       </c>
       <c r="BD112">
-        <v>15</v>
+        <v>4.5</v>
       </c>
       <c r="BE112">
         <v>1000</v>
@@ -23598,157 +23598,157 @@
         <v>363</v>
       </c>
       <c r="F113">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="G113">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="H113">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I113">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J113">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K113">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L113">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="M113">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="N113">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="O113">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="P113">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q113">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R113">
         <v>2.12</v>
       </c>
       <c r="S113">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T113">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="U113">
         <v>14.5</v>
       </c>
       <c r="V113">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W113">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X113">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y113">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z113">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AA113">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AB113">
         <v>9.6</v>
       </c>
       <c r="AC113">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD113">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE113">
         <v>8.199999999999999</v>
       </c>
       <c r="AF113">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG113">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH113">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI113">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ113">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK113">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL113">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM113">
         <v>11.5</v>
       </c>
       <c r="AN113">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO113">
         <v>18.5</v>
       </c>
       <c r="AP113">
+        <v>40</v>
+      </c>
+      <c r="AQ113">
+        <v>980</v>
+      </c>
+      <c r="AR113">
+        <v>25</v>
+      </c>
+      <c r="AS113">
+        <v>30</v>
+      </c>
+      <c r="AT113">
+        <v>20</v>
+      </c>
+      <c r="AU113">
+        <v>24</v>
+      </c>
+      <c r="AV113">
+        <v>30</v>
+      </c>
+      <c r="AW113">
         <v>38</v>
       </c>
-      <c r="AQ113">
-        <v>48</v>
-      </c>
-      <c r="AR113">
-        <v>28</v>
-      </c>
-      <c r="AS113">
-        <v>36</v>
-      </c>
-      <c r="AT113">
-        <v>23</v>
-      </c>
-      <c r="AU113">
-        <v>27</v>
-      </c>
-      <c r="AV113">
-        <v>34</v>
-      </c>
-      <c r="AW113">
-        <v>40</v>
-      </c>
       <c r="AX113">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AY113">
         <v>95</v>
       </c>
       <c r="AZ113">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA113">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="BB113">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BC113">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BD113">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BE113">
         <v>1000</v>
@@ -23795,25 +23795,25 @@
         <v>364</v>
       </c>
       <c r="F114">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G114">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I114">
         <v>7.2</v>
       </c>
       <c r="J114">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K114">
         <v>4.4</v>
       </c>
       <c r="L114">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="M114">
         <v>1.9</v>
@@ -23828,34 +23828,34 @@
         <v>2.1</v>
       </c>
       <c r="Q114">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S114">
         <v>1.91</v>
       </c>
       <c r="T114">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="U114">
         <v>980</v>
       </c>
       <c r="V114">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="W114">
         <v>980</v>
       </c>
       <c r="X114">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y114">
         <v>980</v>
       </c>
       <c r="Z114">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="AA114">
         <v>1000</v>
@@ -23867,85 +23867,85 @@
         <v>980</v>
       </c>
       <c r="AD114">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE114">
         <v>980</v>
       </c>
       <c r="AF114">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AG114">
         <v>980</v>
       </c>
       <c r="AH114">
+        <v>7.2</v>
+      </c>
+      <c r="AI114">
+        <v>980</v>
+      </c>
+      <c r="AJ114">
+        <v>7.6</v>
+      </c>
+      <c r="AK114">
+        <v>980</v>
+      </c>
+      <c r="AL114">
+        <v>5</v>
+      </c>
+      <c r="AM114">
+        <v>980</v>
+      </c>
+      <c r="AN114">
+        <v>6</v>
+      </c>
+      <c r="AO114">
+        <v>980</v>
+      </c>
+      <c r="AP114">
+        <v>7.2</v>
+      </c>
+      <c r="AQ114">
+        <v>980</v>
+      </c>
+      <c r="AR114">
+        <v>5.4</v>
+      </c>
+      <c r="AS114">
+        <v>980</v>
+      </c>
+      <c r="AT114">
+        <v>5.6</v>
+      </c>
+      <c r="AU114">
+        <v>980</v>
+      </c>
+      <c r="AV114">
+        <v>6.6</v>
+      </c>
+      <c r="AW114">
+        <v>980</v>
+      </c>
+      <c r="AX114">
         <v>7.4</v>
       </c>
-      <c r="AI114">
-        <v>1000</v>
-      </c>
-      <c r="AJ114">
-        <v>4.3</v>
-      </c>
-      <c r="AK114">
-        <v>980</v>
-      </c>
-      <c r="AL114">
-        <v>8.6</v>
-      </c>
-      <c r="AM114">
-        <v>980</v>
-      </c>
-      <c r="AN114">
-        <v>6.2</v>
-      </c>
-      <c r="AO114">
-        <v>980</v>
-      </c>
-      <c r="AP114">
-        <v>7.4</v>
-      </c>
-      <c r="AQ114">
-        <v>1000</v>
-      </c>
-      <c r="AR114">
-        <v>5.5</v>
-      </c>
-      <c r="AS114">
-        <v>980</v>
-      </c>
-      <c r="AT114">
-        <v>5.8</v>
-      </c>
-      <c r="AU114">
-        <v>980</v>
-      </c>
-      <c r="AV114">
-        <v>6.8</v>
-      </c>
-      <c r="AW114">
-        <v>980</v>
-      </c>
-      <c r="AX114">
-        <v>4.5</v>
-      </c>
       <c r="AY114">
         <v>1000</v>
       </c>
       <c r="AZ114">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="BA114">
         <v>980</v>
       </c>
       <c r="BB114">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="BC114">
         <v>1000</v>
       </c>
       <c r="BD114">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BE114">
         <v>1000</v>
@@ -23992,16 +23992,16 @@
         <v>365</v>
       </c>
       <c r="F115">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G115">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H115">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J115">
         <v>3</v>
@@ -24010,139 +24010,139 @@
         <v>3.1</v>
       </c>
       <c r="L115">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M115">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N115">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P115">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q115">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R115">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S115">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T115">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U115">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V115">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="W115">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X115">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y115">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z115">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AA115">
         <v>980</v>
       </c>
       <c r="AB115">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC115">
         <v>8.199999999999999</v>
       </c>
       <c r="AD115">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE115">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AF115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG115">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AH115">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AI115">
         <v>980</v>
       </c>
       <c r="AJ115">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK115">
         <v>15.5</v>
       </c>
       <c r="AL115">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AM115">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN115">
         <v>19.5</v>
       </c>
       <c r="AO115">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP115">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AQ115">
         <v>980</v>
       </c>
       <c r="AR115">
-        <v>5.7</v>
+        <v>25</v>
       </c>
       <c r="AS115">
         <v>40</v>
       </c>
       <c r="AT115">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU115">
         <v>40</v>
       </c>
       <c r="AV115">
+        <v>5.7</v>
+      </c>
+      <c r="AW115">
+        <v>980</v>
+      </c>
+      <c r="AX115">
         <v>6</v>
       </c>
-      <c r="AW115">
-        <v>980</v>
-      </c>
-      <c r="AX115">
-        <v>6.4</v>
-      </c>
       <c r="AY115">
         <v>980</v>
       </c>
       <c r="AZ115">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="BA115">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="BB115">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="BC115">
         <v>980</v>
       </c>
       <c r="BD115">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="BE115">
         <v>1000</v>
@@ -24189,19 +24189,19 @@
         <v>366</v>
       </c>
       <c r="F116">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="G116">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H116">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I116">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J116">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K116">
         <v>3.6</v>
@@ -24210,16 +24210,16 @@
         <v>1.97</v>
       </c>
       <c r="M116">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O116">
         <v>2.04</v>
       </c>
       <c r="P116">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q116">
         <v>1.84</v>
@@ -24240,28 +24240,28 @@
         <v>10</v>
       </c>
       <c r="W116">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X116">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y116">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z116">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA116">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC116">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD116">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE116">
         <v>7.8</v>
@@ -24270,22 +24270,22 @@
         <v>10.5</v>
       </c>
       <c r="AG116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH116">
         <v>23</v>
       </c>
       <c r="AI116">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ116">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AK116">
         <v>22</v>
       </c>
       <c r="AL116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM116">
         <v>13.5</v>
@@ -24300,34 +24300,34 @@
         <v>34</v>
       </c>
       <c r="AQ116">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AR116">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AS116">
         <v>55</v>
       </c>
       <c r="AT116">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AU116">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AV116">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AW116">
         <v>48</v>
       </c>
       <c r="AX116">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AY116">
         <v>95</v>
       </c>
       <c r="AZ116">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA116">
         <v>34</v>
@@ -24336,13 +24336,13 @@
         <v>17.5</v>
       </c>
       <c r="BC116">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD116">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="BE116">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="BF116">
         <v>33116169</v>
@@ -24386,22 +24386,22 @@
         <v>367</v>
       </c>
       <c r="F117">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G117">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="H117">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I117">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J117">
+        <v>3.65</v>
+      </c>
+      <c r="K117">
         <v>3.7</v>
-      </c>
-      <c r="K117">
-        <v>3.75</v>
       </c>
       <c r="L117">
         <v>2.14</v>
@@ -24416,16 +24416,16 @@
         <v>1.88</v>
       </c>
       <c r="P117">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q117">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R117">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S117">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T117">
         <v>15</v>
@@ -24434,22 +24434,22 @@
         <v>17</v>
       </c>
       <c r="V117">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="W117">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X117">
+        <v>19</v>
+      </c>
+      <c r="Y117">
         <v>22</v>
       </c>
-      <c r="Y117">
-        <v>24</v>
-      </c>
       <c r="Z117">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA117">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB117">
         <v>11</v>
@@ -24464,25 +24464,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AF117">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG117">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH117">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI117">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ117">
         <v>14</v>
       </c>
       <c r="AK117">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL117">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM117">
         <v>11</v>
@@ -24494,22 +24494,22 @@
         <v>16.5</v>
       </c>
       <c r="AP117">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AQ117">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AR117">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AS117">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AT117">
         <v>21</v>
       </c>
       <c r="AU117">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV117">
         <v>30</v>
@@ -24524,19 +24524,19 @@
         <v>80</v>
       </c>
       <c r="AZ117">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA117">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BB117">
+        <v>26</v>
+      </c>
+      <c r="BC117">
         <v>27</v>
       </c>
-      <c r="BC117">
-        <v>30</v>
-      </c>
       <c r="BD117">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="BE117">
         <v>980</v>
@@ -24583,10 +24583,10 @@
         <v>368</v>
       </c>
       <c r="F118">
+        <v>1.66</v>
+      </c>
+      <c r="G118">
         <v>1.67</v>
-      </c>
-      <c r="G118">
-        <v>1.68</v>
       </c>
       <c r="H118">
         <v>5.7</v>
@@ -24595,40 +24595,40 @@
         <v>5.9</v>
       </c>
       <c r="J118">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K118">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L118">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="M118">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="N118">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="O118">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="P118">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q118">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R118">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S118">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T118">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="U118">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="V118">
         <v>21</v>
@@ -24637,37 +24637,37 @@
         <v>24</v>
       </c>
       <c r="X118">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y118">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z118">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AA118">
         <v>140</v>
       </c>
       <c r="AB118">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC118">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD118">
         <v>9</v>
       </c>
       <c r="AE118">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF118">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG118">
         <v>22</v>
       </c>
       <c r="AH118">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AI118">
         <v>70</v>
@@ -24694,7 +24694,7 @@
         <v>46</v>
       </c>
       <c r="AQ118">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR118">
         <v>15</v>
@@ -24709,7 +24709,7 @@
         <v>16</v>
       </c>
       <c r="AV118">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW118">
         <v>29</v>
@@ -24718,22 +24718,22 @@
         <v>55</v>
       </c>
       <c r="AY118">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AZ118">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BA118">
         <v>8</v>
       </c>
       <c r="BB118">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="BC118">
         <v>65</v>
       </c>
       <c r="BD118">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="BE118">
         <v>980</v>
@@ -24780,13 +24780,13 @@
         <v>369</v>
       </c>
       <c r="F119">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G119">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H119">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I119">
         <v>4.6</v>
@@ -24798,49 +24798,49 @@
         <v>3.9</v>
       </c>
       <c r="L119">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="M119">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O119">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P119">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q119">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R119">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S119">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="T119">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="U119">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V119">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W119">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X119">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y119">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z119">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AA119">
         <v>95</v>
@@ -24855,13 +24855,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE119">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF119">
         <v>17</v>
       </c>
       <c r="AG119">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH119">
         <v>46</v>
@@ -24873,7 +24873,7 @@
         <v>11</v>
       </c>
       <c r="AK119">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL119">
         <v>9.4</v>
@@ -24894,43 +24894,43 @@
         <v>55</v>
       </c>
       <c r="AR119">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS119">
         <v>21</v>
       </c>
       <c r="AT119">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU119">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AV119">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW119">
         <v>32</v>
       </c>
       <c r="AX119">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AY119">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AZ119">
         <v>9.800000000000001</v>
       </c>
       <c r="BA119">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BB119">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BC119">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="BD119">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BE119">
         <v>980</v>
@@ -24977,82 +24977,82 @@
         <v>370</v>
       </c>
       <c r="F120">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="G120">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="H120">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I120">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J120">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K120">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L120">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="M120">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="N120">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="O120">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="P120">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q120">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R120">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S120">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="T120">
         <v>10.5</v>
       </c>
       <c r="U120">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V120">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W120">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X120">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y120">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z120">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AA120">
         <v>130</v>
       </c>
       <c r="AB120">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC120">
+        <v>8</v>
+      </c>
+      <c r="AD120">
         <v>7.8</v>
       </c>
-      <c r="AD120">
-        <v>7.6</v>
-      </c>
       <c r="AE120">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF120">
         <v>18.5</v>
@@ -25061,22 +25061,22 @@
         <v>19</v>
       </c>
       <c r="AH120">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AI120">
         <v>75</v>
       </c>
       <c r="AJ120">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK120">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL120">
         <v>9.800000000000001</v>
       </c>
       <c r="AM120">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN120">
         <v>20</v>
@@ -25085,28 +25085,28 @@
         <v>22</v>
       </c>
       <c r="AP120">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ120">
         <v>85</v>
       </c>
       <c r="AR120">
+        <v>18</v>
+      </c>
+      <c r="AS120">
         <v>19</v>
       </c>
-      <c r="AS120">
+      <c r="AT120">
+        <v>19.5</v>
+      </c>
+      <c r="AU120">
         <v>21</v>
-      </c>
-      <c r="AT120">
-        <v>20</v>
-      </c>
-      <c r="AU120">
-        <v>22</v>
       </c>
       <c r="AV120">
         <v>38</v>
       </c>
       <c r="AW120">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX120">
         <v>60</v>
@@ -25115,19 +25115,19 @@
         <v>150</v>
       </c>
       <c r="AZ120">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="BA120">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="BB120">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BC120">
         <v>95</v>
       </c>
       <c r="BD120">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BE120">
         <v>1000</v>
@@ -25174,49 +25174,49 @@
         <v>371</v>
       </c>
       <c r="F121">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G121">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H121">
         <v>2.02</v>
       </c>
       <c r="I121">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J121">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K121">
         <v>3.85</v>
       </c>
       <c r="L121">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="M121">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="O121">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="P121">
         <v>1.02</v>
       </c>
       <c r="Q121">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="R121">
         <v>1.11</v>
       </c>
       <c r="S121">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="T121">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U121">
         <v>1000</v>
@@ -25371,31 +25371,31 @@
         <v>372</v>
       </c>
       <c r="F122">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G122">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H122">
+        <v>3.4</v>
+      </c>
+      <c r="I122">
         <v>3.5</v>
       </c>
-      <c r="I122">
-        <v>3.6</v>
-      </c>
       <c r="J122">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K122">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L122">
         <v>2.36</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="N122">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O122">
         <v>1.74</v>
@@ -25404,10 +25404,10 @@
         <v>1.61</v>
       </c>
       <c r="Q122">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R122">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="S122">
         <v>2.64</v>
@@ -25419,19 +25419,19 @@
         <v>20</v>
       </c>
       <c r="V122">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="W122">
         <v>18</v>
       </c>
       <c r="X122">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y122">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z122">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA122">
         <v>60</v>
@@ -25440,7 +25440,7 @@
         <v>12</v>
       </c>
       <c r="AC122">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD122">
         <v>8.4</v>
@@ -25449,10 +25449,10 @@
         <v>9</v>
       </c>
       <c r="AF122">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG122">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH122">
         <v>30</v>
@@ -25461,7 +25461,7 @@
         <v>34</v>
       </c>
       <c r="AJ122">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK122">
         <v>16</v>
@@ -25470,7 +25470,7 @@
         <v>10</v>
       </c>
       <c r="AM122">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AN122">
         <v>14</v>
@@ -25482,16 +25482,16 @@
         <v>34</v>
       </c>
       <c r="AQ122">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AR122">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS122">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT122">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AU122">
         <v>20</v>
@@ -25503,13 +25503,13 @@
         <v>29</v>
       </c>
       <c r="AX122">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AY122">
         <v>65</v>
       </c>
       <c r="AZ122">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BA122">
         <v>12</v>
@@ -25518,10 +25518,10 @@
         <v>22</v>
       </c>
       <c r="BC122">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD122">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BE122">
         <v>980</v>
@@ -25571,13 +25571,13 @@
         <v>2.04</v>
       </c>
       <c r="G123">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H123">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I123">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J123">
         <v>3.85</v>
@@ -25613,10 +25613,10 @@
         <v>16.5</v>
       </c>
       <c r="U123">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V123">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W123">
         <v>17.5</v>
@@ -25625,7 +25625,7 @@
         <v>27</v>
       </c>
       <c r="Y123">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z123">
         <v>65</v>
@@ -25649,7 +25649,7 @@
         <v>14</v>
       </c>
       <c r="AG123">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH123">
         <v>36</v>
@@ -25700,7 +25700,7 @@
         <v>29</v>
       </c>
       <c r="AX123">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AY123">
         <v>75</v>
@@ -25709,16 +25709,16 @@
         <v>10.5</v>
       </c>
       <c r="BA123">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BB123">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC123">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BD123">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE123">
         <v>980</v>
@@ -25765,79 +25765,79 @@
         <v>374</v>
       </c>
       <c r="F124">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G124">
         <v>2.08</v>
       </c>
       <c r="H124">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I124">
         <v>3.9</v>
       </c>
       <c r="J124">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K124">
         <v>4.1</v>
       </c>
       <c r="L124">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="M124">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="N124">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O124">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="P124">
         <v>1.66</v>
       </c>
       <c r="Q124">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R124">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="S124">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T124">
         <v>16.5</v>
       </c>
       <c r="U124">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V124">
         <v>16</v>
       </c>
       <c r="W124">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="X124">
         <v>26</v>
       </c>
       <c r="Y124">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z124">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AA124">
         <v>75</v>
       </c>
       <c r="AB124">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC124">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD124">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AE124">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>14.5</v>
       </c>
       <c r="AL124">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM124">
         <v>11</v>
@@ -25876,7 +25876,7 @@
         <v>38</v>
       </c>
       <c r="AQ124">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AR124">
         <v>22</v>
@@ -25891,31 +25891,31 @@
         <v>19.5</v>
       </c>
       <c r="AV124">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW124">
         <v>30</v>
       </c>
       <c r="AX124">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY124">
         <v>75</v>
       </c>
       <c r="AZ124">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="BA124">
         <v>11.5</v>
       </c>
       <c r="BB124">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BC124">
         <v>32</v>
       </c>
       <c r="BD124">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="BE124">
         <v>980</v>
@@ -25962,157 +25962,157 @@
         <v>375</v>
       </c>
       <c r="F125">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G125">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J125">
         <v>4.2</v>
       </c>
       <c r="K125">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L125">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="M125">
+        <v>1.95</v>
+      </c>
+      <c r="N125">
         <v>2.04</v>
-      </c>
-      <c r="N125">
-        <v>1.96</v>
       </c>
       <c r="O125">
         <v>2.18</v>
       </c>
       <c r="P125">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q125">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S125">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="T125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U125">
         <v>15</v>
       </c>
       <c r="V125">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W125">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="X125">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y125">
         <v>980</v>
       </c>
       <c r="Z125">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="AA125">
         <v>980</v>
       </c>
       <c r="AB125">
+        <v>6.4</v>
+      </c>
+      <c r="AC125">
+        <v>8</v>
+      </c>
+      <c r="AD125">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE125">
+        <v>11</v>
+      </c>
+      <c r="AF125">
+        <v>23</v>
+      </c>
+      <c r="AG125">
+        <v>34</v>
+      </c>
+      <c r="AH125">
         <v>6.6</v>
       </c>
-      <c r="AC125">
-        <v>980</v>
-      </c>
-      <c r="AD125">
-        <v>8.4</v>
-      </c>
-      <c r="AE125">
-        <v>980</v>
-      </c>
-      <c r="AF125">
-        <v>22</v>
-      </c>
-      <c r="AG125">
-        <v>980</v>
-      </c>
-      <c r="AH125">
-        <v>8.4</v>
-      </c>
       <c r="AI125">
         <v>980</v>
       </c>
       <c r="AJ125">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK125">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AL125">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AM125">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AN125">
         <v>21</v>
       </c>
       <c r="AO125">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AP125">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AQ125">
         <v>980</v>
       </c>
       <c r="AR125">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AS125">
         <v>15.5</v>
       </c>
       <c r="AT125">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AU125">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV125">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AW125">
         <v>980</v>
       </c>
       <c r="AX125">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY125">
         <v>980</v>
       </c>
       <c r="AZ125">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BA125">
         <v>10.5</v>
       </c>
       <c r="BB125">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BC125">
         <v>980</v>
       </c>
       <c r="BD125">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="BE125">
         <v>1000</v>
@@ -26162,7 +26162,7 @@
         <v>2.16</v>
       </c>
       <c r="G126">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H126">
         <v>3.9</v>
@@ -26180,10 +26180,10 @@
         <v>1.79</v>
       </c>
       <c r="M126">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="N126">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="O126">
         <v>2.28</v>
@@ -26192,43 +26192,43 @@
         <v>1.94</v>
       </c>
       <c r="Q126">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S126">
         <v>2.06</v>
       </c>
       <c r="T126">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U126">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V126">
         <v>11.5</v>
       </c>
       <c r="W126">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X126">
         <v>25</v>
       </c>
       <c r="Y126">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z126">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA126">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB126">
         <v>8</v>
       </c>
       <c r="AC126">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD126">
         <v>7.2</v>
@@ -26261,7 +26261,7 @@
         <v>11</v>
       </c>
       <c r="AN126">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO126">
         <v>20</v>
@@ -26282,10 +26282,10 @@
         <v>22</v>
       </c>
       <c r="AU126">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV126">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AW126">
         <v>44</v>
@@ -26297,19 +26297,19 @@
         <v>130</v>
       </c>
       <c r="AZ126">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA126">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BB126">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BC126">
         <v>70</v>
       </c>
       <c r="BD126">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BE126">
         <v>1000</v>
@@ -26356,28 +26356,28 @@
         <v>377</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G127">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="H127">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I127">
+        <v>4.1</v>
+      </c>
+      <c r="J127">
         <v>4</v>
       </c>
-      <c r="J127">
-        <v>3.95</v>
-      </c>
       <c r="K127">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L127">
         <v>2.3</v>
       </c>
       <c r="M127">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N127">
         <v>1.73</v>
@@ -26392,52 +26392,52 @@
         <v>1.72</v>
       </c>
       <c r="R127">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S127">
         <v>2.5</v>
       </c>
       <c r="T127">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="U127">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V127">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="W127">
         <v>19</v>
       </c>
       <c r="X127">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y127">
         <v>30</v>
       </c>
       <c r="Z127">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA127">
         <v>75</v>
       </c>
       <c r="AB127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC127">
         <v>12</v>
       </c>
       <c r="AD127">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AE127">
         <v>9.4</v>
       </c>
       <c r="AF127">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG127">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH127">
         <v>36</v>
@@ -26446,7 +26446,7 @@
         <v>40</v>
       </c>
       <c r="AJ127">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK127">
         <v>14</v>
@@ -26467,19 +26467,19 @@
         <v>40</v>
       </c>
       <c r="AQ127">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AR127">
+        <v>20</v>
+      </c>
+      <c r="AS127">
         <v>22</v>
-      </c>
-      <c r="AS127">
-        <v>23</v>
       </c>
       <c r="AT127">
         <v>17</v>
       </c>
       <c r="AU127">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV127">
         <v>27</v>
@@ -26488,25 +26488,25 @@
         <v>29</v>
       </c>
       <c r="AX127">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AY127">
         <v>75</v>
       </c>
       <c r="AZ127">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA127">
         <v>11</v>
       </c>
       <c r="BB127">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC127">
         <v>34</v>
       </c>
       <c r="BD127">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="BE127">
         <v>980</v>
@@ -26553,13 +26553,13 @@
         <v>378</v>
       </c>
       <c r="F128">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G128">
         <v>2.64</v>
       </c>
       <c r="H128">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I128">
         <v>3.25</v>
@@ -26568,46 +26568,46 @@
         <v>3.25</v>
       </c>
       <c r="K128">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L128">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M128">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="N128">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="O128">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="P128">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q128">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R128">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="S128">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T128">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V128">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W128">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X128">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y128">
         <v>21</v>
@@ -26619,22 +26619,22 @@
         <v>60</v>
       </c>
       <c r="AB128">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC128">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD128">
         <v>6.8</v>
       </c>
       <c r="AE128">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF128">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG128">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH128">
         <v>32</v>
@@ -26646,7 +26646,7 @@
         <v>14</v>
       </c>
       <c r="AK128">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL128">
         <v>11</v>
@@ -26655,7 +26655,7 @@
         <v>13.5</v>
       </c>
       <c r="AN128">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO128">
         <v>22</v>
@@ -26664,13 +26664,13 @@
         <v>30</v>
       </c>
       <c r="AQ128">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AR128">
         <v>32</v>
       </c>
       <c r="AS128">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AT128">
         <v>28</v>
@@ -26685,25 +26685,25 @@
         <v>55</v>
       </c>
       <c r="AX128">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AY128">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AZ128">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA128">
         <v>34</v>
       </c>
       <c r="BB128">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC128">
         <v>46</v>
       </c>
       <c r="BD128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BE128">
         <v>1000</v>
@@ -26753,43 +26753,43 @@
         <v>1.5</v>
       </c>
       <c r="G129">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H129">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I129">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J129">
         <v>4.5</v>
       </c>
       <c r="K129">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L129">
+        <v>2.02</v>
+      </c>
+      <c r="M129">
+        <v>2.1</v>
+      </c>
+      <c r="N129">
+        <v>1.92</v>
+      </c>
+      <c r="O129">
         <v>1.99</v>
-      </c>
-      <c r="M129">
-        <v>2.08</v>
-      </c>
-      <c r="N129">
-        <v>1.94</v>
-      </c>
-      <c r="O129">
-        <v>2.02</v>
       </c>
       <c r="P129">
         <v>2.08</v>
       </c>
       <c r="Q129">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R129">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T129">
         <v>13.5</v>
@@ -26804,16 +26804,16 @@
         <v>25</v>
       </c>
       <c r="X129">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y129">
         <v>70</v>
       </c>
       <c r="Z129">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA129">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB129">
         <v>7.2</v>
@@ -26834,7 +26834,7 @@
         <v>32</v>
       </c>
       <c r="AH129">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI129">
         <v>140</v>
@@ -26858,25 +26858,25 @@
         <v>27</v>
       </c>
       <c r="AP129">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AQ129">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AR129">
         <v>12</v>
       </c>
       <c r="AS129">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT129">
         <v>15</v>
       </c>
       <c r="AU129">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AV129">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AW129">
         <v>40</v>
@@ -26885,22 +26885,22 @@
         <v>44</v>
       </c>
       <c r="AY129">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AZ129">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="BA129">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB129">
         <v>46</v>
       </c>
       <c r="BC129">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="BD129">
-        <v>19.5</v>
+        <v>48</v>
       </c>
       <c r="BE129">
         <v>1000</v>
